--- a/uso/data/dataCompletaMarzo.xlsx
+++ b/uso/data/dataCompletaMarzo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariapaulaherrero/Documents/documentosPersonal/My Documents/ucv/maestria/MD/MDproyecto/codigo/uso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D7F065-4CF9-E44A-9271-B2EF1451A175}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E1C546-08A3-AB40-BF75-8C5DA30AE666}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{A8B5CC01-5788-7E41-B20A-C97266322DE8}"/>
+    <workbookView xWindow="1980" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="6" xr2:uid="{A8B5CC01-5788-7E41-B20A-C97266322DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="201903130932Data" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="201903140917Data" sheetId="4" r:id="rId4"/>
     <sheet name="201903140928Data" sheetId="5" r:id="rId5"/>
     <sheet name="201903140934DataSin18yContexto" sheetId="6" r:id="rId6"/>
+    <sheet name="Hoja1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_201903130932Data" localSheetId="0">'201903130932Data'!$A$1:$N$10</definedName>
@@ -27,6 +28,7 @@
     <definedName name="_201903140917Data" localSheetId="3">'201903140917Data'!$A$1:$N$13</definedName>
     <definedName name="_201903140928Data" localSheetId="4">'201903140928Data'!$A$1:$N$10</definedName>
     <definedName name="_201903140934DataSin18yContexto" localSheetId="5">'201903140934DataSin18yContexto'!$A$1:$N$10</definedName>
+    <definedName name="_201903151104Data" localSheetId="6">Hoja1!$A$1:$N$14</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -165,11 +167,31 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="7" xr16:uid="{C1D25D72-898E-A140-B8F7-7504D89CDACF}" name="201903151104Data" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/mariapaulaherrero/Documents/documentosPersonal/My Documents/ucv/maestria/MD/MDproyecto/codigo/uso/data/201903151104Data.csv" decimal="," thousands="." tab="0" semicolon="1">
+      <textFields count="14">
+        <textField type="text"/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="341">
   <si>
     <t>autor</t>
   </si>
@@ -946,14 +968,291 @@
   </si>
   <si>
     <t>El Cabletrén y el Metrocable de San Angustín y Mariches también fueron restituidos</t>
+  </si>
+  <si>
+    <t>2019-03-74T10:22:00-0400</t>
+  </si>
+  <si>
+    <t>http://en-cdnmed.agilecontent.com//resources/jpg/5/1/1552659385815.jpg</t>
+  </si>
+  <si>
+    <t>Crisis política, Nicolás Maduro, Estados Unidos, Mundo, Crisis económica, Crisis humanitaria</t>
+  </si>
+  <si>
+    <t>Una fuente confirmó a El Nacional que a partir de este sábado la aerolínea realizará un vuelo diario </t>
+  </si>
+  <si>
+    <t>American Airlines suspendió sus vuelos en Venezuela este viernes</t>
+  </si>
+  <si>
+    <t>http://www.el-nacional.com/noticias/mundo/american-airlines-suspendio-sus-vuelos-venezuela-este-viernes_274793</t>
+  </si>
+  <si>
+    <t>Vecinos del sector de El Cementerio, en Caracas, denunciaron vía Twitter que no han recibido desde hace más de 10 días el servicio de agua potable en sus hogares.|'Todavía sin agua en el Cementerio , Cota 905, El Paraíso. ¿Hasta Cuando? Ya mas de dos Semanas sin agua.', indicó una vecina del sector vía Twitter.|En numerosas zonas de la Gran Caracas y el país, con pocas excepciones, el servicio de agua potable no se ha restablecido correctamente luego del apagón masivo que ocurrió el pasado 7 de marzo.</t>
+  </si>
+  <si>
+    <t>2019-03-74T10:12:00-0400</t>
+  </si>
+  <si>
+    <t>http://en-cdnmed.agilecontent.com//resources/jpg/0/3/1549025234730.jpg</t>
+  </si>
+  <si>
+    <t>Agua, Caracas, Sociedad</t>
+  </si>
+  <si>
+    <t>En diversas zonas de la Gran Caracas se ha registrado la falta del servicio </t>
+  </si>
+  <si>
+    <t>Vecinos de El Cementerio denuncian no tener agua desde hace 10 días</t>
+  </si>
+  <si>
+    <t>http://www.el-nacional.com/noticias/sociedad/vecinos-cementerio-denuncian-tener-agua-desde-hace-dias_274790</t>
+  </si>
+  <si>
+    <t>Juan Guaidó, presidente interino de Venezuela, publicó un mensaje vía Twitter en el que destacó las recientes donaciones entregadas al Hospital Ortopédico Infantil de Caracas por parte de su esposa, Fabiana Rosales.|“Insistimos en ayudar a los más vulnerables. Ayer logramos entregar donaciones en hospitales, mientras el régimen bloquea y quema comida y medicina”, expresó el mandatario encargado en la red social.|Asimismo, reiteró que con el “cese de la usurpación” se podrá ingresar la ayuda humanitaria y la “derrota de la pobreza”.|Rosales realizó un recorrido por varios hospitales de Caracas y, a pesar de que varios de ellos están fuertemente custodiados, logró ingresar alimentos y medicinas al Hospital Ortopédico.</t>
+  </si>
+  <si>
+    <t>2019-03-74T10:11:00-0400</t>
+  </si>
+  <si>
+    <t>http://en-cdnmed.agilecontent.com//resources/jpg/0/5/1552659175350.jpg</t>
+  </si>
+  <si>
+    <t>Política, Juan Guaidó</t>
+  </si>
+  <si>
+    <t>El presidente interino aseguró que con el 'cese de la usurpación' se podrá 'derrotar la pobreza'</t>
+  </si>
+  <si>
+    <t>Guaidó: Logramos entregar donaciones mientras el régimen quema medicinas</t>
+  </si>
+  <si>
+    <t>http://www.el-nacional.com/noticias/politica/guaido-logramos-entregar-donaciones-mientras-regimen-quema-medicinas_274792</t>
+  </si>
+  <si>
+    <t>Un grupo de escritores, músicos, periodistas y artistas plásticos cubanos, residentes dentro y fuera de la isla firmaron una carta en la que exigen al gobierno de Cuba que se abstenga de intervenir en el conflicto político de Venezuela y saque de allí a sus numerosos “cooperantes”, tanto civiles como militares.|La carta fue enviada por la cuenta de Facebook Penúltimos Días y le pedía a los intelectuales que sumaran su apoyo. Como resultado, muchos la firmaron, entre ellos el periodista Carlos Alberto Montaner, que además la puso en su cuenta de Twitter.|“Ya es hora de que Cuba deje de exportar o azuzar conflictos en otros países, bajo los pretextos de la solidaridad ideológica, y de que asegure su subsistencia con recursos propios, sin expolio ni injerencia de ningún tipo”, dice la misiva, que publicó además el site Cibercuba.|Aparecen las rúbricas de figuras tan reconocidas como el músico y compositor Paquito D'Rivera, el politólogo Armando Chaguaceda, el escritor Abilio Estévez, y el artista plástico y activista opositor Luis Manuel Otero Alcántara. A continuación, el texto completo:|Carta abierta sobre la situación de Venezuela|¡Pobre Venezuela! Después de haber emprendido lo que anunció como un proceso radical de transformación social, que debía marcar un punto de inflexión en la ideología latinoamericana y garantizar un proyecto de igualdad social bautizado como “el socialismo del siglo XXI', hoy ese país ha terminado convertido en un recinto despótico, donde no sólo se violan los derechos políticos más elementales, sino en el que ya apenas se puede sobrevivir con un mínimo de dignidad. De la emancipación prometida a la mendicidad obligatoria, de ilusión de la izquierda continental a prototipo del fracaso, la desesperación y el éxodo: tal es el triste trayecto de la llamada 'revolución bolivariana'.|Ante la grave situación política y humanitaria que hoy atraviesa Venezuela, los abajo firmantes, intelectuales cubanos que residimos dentro y fuera de la isla, exigimos al gobierno cubano que atienda a las evidencias del desastre social y humanitario, se abstenga de intervenir por cualquier medio en el conflicto político de esa nación y retire a los numerosos 'cooperantes', tanto civiles como militares, que cumplen servicio en ese país. Tras seis décadas de una revolución fracasada, y el hundimiento de esa “Cubazuela” celebrada durante años por el castrochavismo, ya es hora de que Cuba deje de exportar o azuzar conflictos en otros países bajo los pretextos de la solidaridad ideológica, y de que asegure su subsistencia con recursos propios, sin expolio ni injerencia de ningún tipo.|Firman:|- Ladislao Aguado, escritor y editor.|-Carlos A. Aguilera, escritor.|-Janet Batet, curadora y crítico de arte.|-Yoandy Cabrera, académico.|-María A. Cabrera Arús, académica.|-Pablo de Cuba Soria, escritor y editor.|-Enrique del Risco, escritor y académico.|-Armando Chaguaceda, politólogo.|-Paquito D'Rivera, músico, compositor y escritor.|-Néstor Díaz de Villegas, escritor.|-Manuel Díaz Martínez, escritor.|-Jorge I. Domínguez-López, escritor y periodista.|-Vicente Echerri, escritor.|-Abilio Estévez, escritor.|-Gerardo Fernández Fe, escritor.|-Alejandro González Acosta, escritor y académico.|-Ginés Górriz, productor.|-Kelly M. Grandal, escritora.|-Ernesto Hernández Busto, escritor.|-Natacha Herrera, periodista.|-José Kozer, poeta.|-Boris Larramendi, músico.|-Felipe Lázaro, escritor y editor.|-Rafael López-Ramos, artista visual.|-Félix Luis Viera, escritor.|-Jacobo Machover, escritor y académico.|-Roberto Madrigal, escritor.|-María Matienzo Puerto, escritora y periodista.|-L. Santiago Méndez Alpízar, escritor.|-Michael H. Miranda, escritor y académico.|-Carlos Alberto Montaner, escritor y periodista.|-Adrián Monzón, artista y productor.|-Lilliam Moro, escritora.|-Luis Manuel Otero, artista y activista.|-Amaury Pacheco del Monte, escritor y artivista.|-Geandy Pavón, fotógrafo y artista visual.|-Gustavo Pérez-Firmat, escritor y académico.|-José Prats Sariol, escritor.|-Legna Rodríguez Iglesias, escritora.|-Alexis Romay, escritor.|-Rolando Sánchez Mejías, escritor.|-Manuel Sosa, escritor.|-Armando Valdés-Zamora, escritor y académico.|-Amir Valle, escritor.|-Camilo Venegas Yero, escritor y periodista.</t>
+  </si>
+  <si>
+    <t>2019-03-74T10:03:00-0400</t>
+  </si>
+  <si>
+    <t>http://en-cdnmed.agilecontent.com//resources/jpg/2/1/1552658695012.jpg</t>
+  </si>
+  <si>
+    <t>Paquito D’Rivera y Carlos Alberto Montaner figuran entre los firmantes de una carta en la que se le exige al gobierno de Cuba que deje de intervenir en los asuntos venezolanos</t>
+  </si>
+  <si>
+    <t>Intelectuales y artistas cubanos exigen salida de los cubanos de Venezuela</t>
+  </si>
+  <si>
+    <t>http://www.el-nacional.com/noticias/latinoamerica/intelectuales-artistas-cubanos-exigen-salida-los-cubanos-venezuela_274789</t>
+  </si>
+  <si>
+    <t>Reinaldo Oliveros | @_reioliveros</t>
+  </si>
+  <si>
+    <t>Más de tres millones de venezolanos, de acuerdo con cifras oficiales de la Organización de las Naciones Unidas (ONU) han emigrado del país debido a la crisis social y política, lo que generó que España, país en el que viven más de 500.000 de estos migrantes, se convirtiera en uno de los destinos que ha acogido mayor cantidad de ciudadanos provenientes de Venezuela.|La situación social en Venezuela se convirtió en un importante tema de discusión dentro de la política española. Dirigentes y expertos venezolanos exiliados han tenido la oportunidad de exponer y marcar una posición clara en espacios como la Cumbre Mundial de la Comunicación Política en el país europeo.|“El tema de Venezuela se ha convertido muy importante aquí en España, porque cada uno de los venezolanos lamentablemente tuvimos que huir de nuestro país por la situación. Nos hemos convertido en voceros de todo lo que está ocurriendo en nuestro país”, dijo Joseph Hamilton, presidente de la Fundación Comunidad Iberoamericana, en exclusiva a El Nacional.|Hamilton explicó que expertos políticos venezolanos han expuesto ante dirigentes españoles la situación que vive Venezuela en los organismos pertinentes de la nación europea, para así promover políticas necesarias “para reconstruir la democracia” en el país.|“En España marcamos mucha posición ante dirigentes políticos de que tienen que seguir asumiendo la temática de Venezuela y promover las políticas necesarias para que haya un cambio de poder y que los venezolanos que estamos en el exilio tengamos la oportunidad de volver a nuestro país y reconstruir la verdadera democracia”, acotó.|Además, resaltó la relevancia e importancia que la comunidad venezolana y latina ha tomado en España.  “En la nación española hoy en día ante una población de casi 40 millones de habitantes y en la que tres millones son latinoamericanos, y casi 500.000 venezolanos, representa un factor muy importante a la hora de cualquier candidato participar en elecciones”, agregó.|La diáspora ha sensibilizado a los españoles|El presidente de la Fundación Comunidad Iberoamericana agregó que los ciudadanos españoles se han sensibilizado con la crisis venezolana y alegó que la migración ha sido un punto importante para comprender lo que se vive actualmente en el país.|“Todos los venezolanos que han sido voceros, desde su propia historia y vida, han sensibilizado a los españoles sin importar su ideología política”, aseguró.|Hamilton destacó que hay ciudadanos en España que tienen familiares y amigos en Venezuela que viven en las mismas condiciones que los demás venezolanos.|“Hay españoles o familiares que están sufriendo las mismas consecuencias de este régimen,  que no quiere salir del poder. Hoy en Venezuela hay alrededor de 300.000 españoles que conocen la crisis y que representa un colectivo sumamente importante”.|Los medios de comunicación españoles también se han convertido en una ventana para que los ciudadanos que habitan en ese país tengan información de la situación en Venezuela. “Los medios  y los diarios todos los días sacan un artículo sobre la situación de Venezuela, si no es en la portada, es en la primera página”.|La diáspora venezolana se ha convertido en una manera para que los ciudadanos de diversos países del mundo puedan comprender la situación que vivieron y que sufren muchos de sus familiares, y tener las oportunidades desde el exterior de contribuir y ayudar ante la crisis del país.</t>
+  </si>
+  <si>
+    <t>2019-03-74T09:45:00-0400</t>
+  </si>
+  <si>
+    <t>http://en-cdnmed.agilecontent.com//resources/jpg/7/1/1552658785017.jpg</t>
+  </si>
+  <si>
+    <t>España, Mundo, Diáspora</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>Dirigentes políticos venezolanos en el exilio y ciudadanos del país han aprovechado los espacios que brinda la nación europea para poner en contexto la crisis que hay en Venezuela</t>
+  </si>
+  <si>
+    <t>Diáspora venezolana: un factor que marca la política en España</t>
+  </si>
+  <si>
+    <t>http://www.el-nacional.com/noticias/europa/diaspora-venezolana-factor-que-marca-politica-espana_274724</t>
+  </si>
+  <si>
+    <t>Alejandro Velasco, profesor de historia en la Universidad de Nueva York, aseguró que los grupos motorizados o colectivos tienen entre 5.000 a 7.000 miembros en el Venezuela, y que explican cómo Nicolás Maduro se mantiene a pesar de la crisis económica y eléctrica en el país, reseñó el diario The Washington Post.|Maduro instó esta semana mediante una cadena nacional a los “colectivos” que viajaban en motocicleta a intensificar sus esfuerzos, mientras el país se encontraba al borde del colapso eléctrico.  'Llamo a los colectivos. Ha llegado la hora de la resistencia, la resistencia activa en la comunidad', declaró Maduro en el discurso de este lunes.|El pasado domingo diversas personas protestaron debido a las fallas eléctricas en el que acudieron un grupo de 20 motos que dispararon con pistolas y rifles, para reprimir la manifestación. 'Ahora ni siquiera podemos protestar, porque nos dispararán', dijo Delia Arellano, de 72 años, una de las manifestantes'.|El Washington Post señala que los colectivos se han vuelto particularmente importantes puesto que Maduro no usa las Fuerzas Armadaspara reprimir las manifestaciones.|Con información de The Washington Post</t>
+  </si>
+  <si>
+    <t>2019-03-74T09:29:00-0400</t>
+  </si>
+  <si>
+    <t>http://en-cdnmed.agilecontent.com//resources/jpg/7/8/1552658215087.jpg</t>
+  </si>
+  <si>
+    <t>Política, Nicolás Maduro, Sucesos</t>
+  </si>
+  <si>
+    <t>El diario The Washington Post reseñó que los grupos motorizados son utilizados para reprimir las manifestaciones</t>
+  </si>
+  <si>
+    <t>Colectivos, los ejecutores de Nicolás Maduro en Venezuela</t>
+  </si>
+  <si>
+    <t>http://www.el-nacional.com/noticias/politica/colectivos-los-ejecutores-nicolas-maduro-venezuela_274787</t>
+  </si>
+  <si>
+    <t>Las plantas eléctricas de Ejido, en el municipio Campo Elías de Mérida, quedaron destruidas tras el apagón nacional registrado el 7 de marzo.|La información fue compartida vía Twitter por el periodista Jesús Quintero Quiróz, quien calificó el estado de estos equipos como “chatarra y ruinas”.|De acuerdo con Quiróz, estas plantas fueron vendidas como unas de las “grandes” respuestas a los problemas eléctricos en Mérida.|Hospitales y demás servicios de Mérida colapsaron tras la falla eléctrica registrada a nivel nacional, que en dicha entidad superó las 100 horas.</t>
+  </si>
+  <si>
+    <t>2019-03-74T09:24:00-0400</t>
+  </si>
+  <si>
+    <t>http://en-cdnmed.agilecontent.com//resources/jpg/1/4/1552656234541.jpg</t>
+  </si>
+  <si>
+    <t>Servicios, Mérida</t>
+  </si>
+  <si>
+    <t>El equipo de plantas de Ejido quedó convertido en chatarra luego de las diversas fallas eléctricas en el país</t>
+  </si>
+  <si>
+    <t>Plantas eléctricas de Mérida quedaron destruidas tras apagón</t>
+  </si>
+  <si>
+    <t>http://www.el-nacional.com/noticias/servicios/plantas-electricas-merida-quedaron-destruidas-tras-apagon_274786</t>
+  </si>
+  <si>
+    <t>AFP</t>
+  </si>
+  <si>
+    <t>París.- La caída de la producción petrolera en Venezuela, causada por una gigantesco apagón eléctrico, podría plantear un problema para el suministro del mercado por lo que sería necesario acudir a las capacidades suplementarias de Arabia Saudita, indicó el viernes la Agencia Internacional de Energía (AIE).|'La semana pasada, las operaciones del sector (petrolero venezolano) quedaron seriamente perturbadas y las pérdidas actuales a gran escala podrían plantear una dificultad para el mercado' dice la AIE en su informe mensual sobre el petróleo.|Venezuela sufrió un gigantesco fallo eléctrico que afectó en especial a la actividad de la compañía petrolera pública Pdvsa, crucial para la economía local.|'Aunque hay señales de que la situación mejora, la degradación del sistema eléctrico es tal que no podemos estar seguros de que las reparaciones sean duraderas' dijo la agencia con sede en París.|La producción de Venezuela se había estabilizado en torno a 1,2 millones de barriles diarios (mbd). La cifra corresponde también al volumen de reducción voluntaria de la producción decidida por la Organización de Países Exportadores de Petróleo (OPEP) y Rusia para sostener las cotizaciones del crudo, destaca la AIE.|En total, los miembros del cartel -exceptuando a Irán y Venezuela- disponen de 2,8 mbd de capacidad de producción suplementaria (dos terceras partes en Arabia Saudita), según los cálculos de la AIE.|'En caso de pérdida importante de la producción procedente de Venezuela, los medios potenciales para evitar una grave perturbación del mercado están al alcance de la mano' indica la agencia.|Según un informe de la OPEP publicado el jueves, la producción de crudo en Venezuela cayó durante febrero, antes del apagón, en 142 mil barriles al día hasta poco más de 1 mbd.</t>
+  </si>
+  <si>
+    <t>http://mmedia.eluniversal.com/17962/platts-produccion-de-crudo-local-cayo-en-60-mil-barriles-19284.jpg</t>
+  </si>
+  <si>
+    <t>La Agencia internacional de Energía comentó 'no estar segura' de la durabilidad de las reparaciones</t>
+  </si>
+  <si>
+    <t>AIE expresa su preocupación por la caída de petróleo en Venezuela debido al apagón</t>
+  </si>
+  <si>
+    <t>http://www.eluniversal.com/economia/35400/aie-expresa-preocupacion-por-caida-de-petroleo-en-venezuela-por-apagon</t>
+  </si>
+  <si>
+    <t>La compañía Metro de Caracas anunció el servicio de trenes fue restablecido en todas las estaciones de la línea 1 del sistema. Mientras que las líneas 2, 3 y 4 continúan con sus operaciones de forma regular.</t>
+  </si>
+  <si>
+    <t>http://mmedia.eluniversal.com/17897/metro-14430.jpg</t>
+  </si>
+  <si>
+    <t>caracas</t>
+  </si>
+  <si>
+    <t>La compañía anunció que el servicio de trenes en la línea 1 se encuentra restablecido en su totalidad por ambas vías. Además las líneas 2, 3 y 4 se mantienen operando con normalidad</t>
+  </si>
+  <si>
+    <t>Metro de Caracas restableció totalmente operaciones en todas sus líneas</t>
+  </si>
+  <si>
+    <t>http://www.eluniversal.com/caracas/35392/metro-de-caracas-restablecio-totalmente-operaciones-en-todas-sus-lineas</t>
+  </si>
+  <si>
+    <t>Caracas.- Especialistas de la industria eléctrica rechazaron la versión oficial del “ataque cibernético” al Sistema Eléctrico Nacional (SEN), como causa fundamental del inédito apagón que sobrepasó el dintel de las 72 horas en la casi totalidad del territorio nacional, ocasionando un colapso en la cotidianidad del país, en los sistemas de transporte  masivo, telecomunicaciones y en la economía.|MARIELA LEÓN|El Gobierno en esta ocasión, nuevamente endosó la raíz de la importante falla del sistema a un hecho deliberado, esta vez lo calificó de “sabotaje electromagnético” con epicentro en la central hidroeléctrica de Guri (Bolívar), proveniente de Estados Unidos.|Voceros de Corpoelec y el Ministerio de Energía Eléctrica no han ofrecido detalles de la reciente ocurrencia.|El presidente Nicolás Maduro, ordenó la creación de una comisión que  investigará los hechos,  liderada por la vicepresidenta Delcy Rodríguez y la cual contará con la asesoría de Rusia, China, Irán y Cuba, países conocedores de ciberataques.|Miguel Lara, exgerente general de la Oficina de Operación de Sistemas Interconectados (Opsis) y José Aguilar, consultor de sistemas eléctricos, señalaron a pocas horas del apagón que  “por su amplitud geográfica, es innegable que ocurrió entre los tramos de la subestación San Gerónimo B y el Guri B entre las cuales se encuentra la subestación Malena”.|el ministro Luis Motta Domínguez supervisó este jueves la Subestación San Gerónimo B verificando el funcionamiento del Sistema 765 kV”, dijo la empresa a través de @CorpoelecGUA.|Los especialistas argumentaron que “no es posible” un ataque cibernético, posición coincidente con un documento elaborado por la  Facultad de Ingeniería de  la Universidad Central de Venezuela (UCV).|Sostienen los analistas que  la fuente hidroeléctrica del Bajo Caroní, básicamente del embalse de Guri, suministra casi 80% de la energía eléctrica del país, mientras que el parque termoeléctrico, está altamente indisponible, carece de mantenimiento y de combustibles, así como de personal especializado para encarar estas situaciones.|“De los 19.000 megavatios (MW) térmicos instalados en el país, solo funcionan unos 2.000 a 2.500 MW. Esto es inexcusable. El Zulia y los Andes en la cola del SEN, muy afectados desde hace algunos años de manera recurrente”, resaltó Aguilar.|En su opinión “otros factores además del incidente que sirvió de espoleta es lo que pudo haber pasado en el Centro Regional de Guayana,  en Puerto Ordaz, desde donde se comanda la  Red Troncal de Transmisión (RTT) a través de un mecanismo de control que se llama Sistema de Supervisión y Control de Datos (Scada), el cual también interactúa con el sistema AGC o en castellano, Sistema de Control Automático de Generación de la Casa de Máquinas II (CMII) de Guri”.|Destaca que un ataque cibernético “no es posible ya que los lazos de comunicaciones entre el Scada y el AGC no tienen conectividad con el mundo exterior para evitar este tipo de acciones”.|Entretanto, el informe de la UCV advierte que el apagón “se produjo por un incendio que afectó tres líneas de transmisión y sacó de sincronía a Guri”.|O bien, “que las turbinas de la CMII sufrió daños que obligarán al racionamiento”.|Asimismo señala que la inoperatividad del Guri recargó a la generación térmica, que de todas formas perdió la sincronía necesaria para usar la red de transmisión y se desconectaron de forma automática.</t>
+  </si>
+  <si>
+    <t>http://mmedia.eluniversal.com/17965/se-restablece-servicio-electrico-en-algunas-zonas-de-caracas-19310.jpg</t>
+  </si>
+  <si>
+    <t>Expertos señalan que los mecanismos de control no tienen conectividad externa</t>
+  </si>
+  <si>
+    <t>Analistas descartan “ataque  cibernético” en el apagón</t>
+  </si>
+  <si>
+    <t>http://www.eluniversal.com/economia/35372/analistas-descartan-ataque-cibernetico-en-el-apagon</t>
+  </si>
+  <si>
+    <t>Lo que va de este año 2019, puso en evidencia, de cara adentro del chavismo, la realidad de que la falta de alimentos, de medicinas y de servicios, era por problemas de gestión del propio gobierno. Esto es importante, porque la verdadera posibilidad de un cambio, no reside ni en la oposición, ni en EEUU, sino en el interior de un grupo hegemónico dentro del propio chavismo que pudiera impulsarlo.|Cada acción o alocución presidencial, siempre estuvo dirigida a su propia gente, y ahí es donde se podía medir el grado de cohesión o riesgo interno, que había en cada momento, en lo civil, y lo militar.|Los acontecimientos cada vez difieren más de las “explicaciones”  que, sobre ellos, da el gobierno. Los voceros tratan de mantener la calma sobre las bases de situaciones que ya su propia gente, civil y militar, no “compra” por la diferencia con lo que cada uno vive en su realidad cotidiana.|La mayor preocupación del chavismo, está en mantener la cohesión en sus filas, lo cual se había facilitado con la amenaza de invasión externa. Ahora que pareciera que esa probabilidad bajó, deberán encontrar otro enemigo, que seguramente volverá a ser Colombia. Lo que no les puede pasar, es que queden expuestos frente a la realidad, sin canales de distracción. Curiosamente, el apagón, fue al mismo tiempo un  problema y una distracción. Cosas del manejo de la verdad y de la post verdad…|Noticias relevantes|•Hospital J.M de Los Ríos: necesidad de recibir la ayuda humanitaria tras mega apagón (ayudemos a las familias de los niños pacientes!!!)|•Sistema de líneas de 765 kilovoltios de Guri está operativo, pero seguirán los racionamientos (el problema va mas allá de transmisión)|•Embajada americana: sede Bogotá ha sido asignada como la Unidad de Visas para Venezuela (quitaron la bandera de la sede de Valle Arriba, es que ya no es más territorio americano?)|•“Es una pesadilla”: comunidad artística venezolana tratando de mantenerse a flote en medio de la convulsión|•Bloomberg: Una intervención militar norteamericana en Venezuela es menos posible ahora. El retiro de diplomáticos es una precaución, no un preludio a la guerra|•Chavismo realizará “maniobras militares”, este fin de semana, para la defensa del sistema eléctrico|•Reuters: ¿Y los bolívares? monedas extranjeras son primera opción en Venezuela durante emergencia|Lo que no fue noticia (y debería serlo)|•Que el ambiente de la vida diaria se ha ido enrareciendo y se comienza a hacer más difícil usar la palabra calma: lo adecuado sería “tensa calma”. La normalidad ha desaparecido y no va a regresar|•Ni que las posibilidades de violencia en las calles está creciendo aceleradamente, y hay que cuidarse mas|•O que mi odisea de 26 horas para tomar un avión en Maiquetía, se completó cuando, ya con el avión en la rampa, se dañó la manguera del camión que le ponía combustible, y hubo que buscar otro…|•Tampoco que las empresas deben revisar cuidadosamente sus estados financieros para evitar caer en “pérdida técnica” (capital de trabajo negativo) y quedar vulnerables frente a interpretaciones tendenciosas del código de comercio</t>
+  </si>
+  <si>
+    <t>La cara adentro del chavismo</t>
+  </si>
+  <si>
+    <t>http://www.eluniversal.com/economia/35378/vitrina-venezuela</t>
+  </si>
+  <si>
+    <t>DICK TORRES</t>
+  </si>
+  <si>
+    <t>Caracas.- Miles de personas hicieron largas colas este jueves en las entradas de los bancos en procura de dinero en efectivo, luego de restablecerse las operaciones tras el apagón que paralizó las actividades en las entidades financieras a partir del pasado viernes.|Entre cuatro a seis mil bolívares se podía retirar de las taquillas en todos bancos del país, de acuerdo con las disponibilidades en sus bóvedas, explicaron algunos gerentes luego de un recorrido del diario El Universal por varias de las entidades bancarias ubicadas en  el centro de Caracas.|Algunas sucursales permanecieron cerradas al público debido a la caída de los sistemas operativos por fallas en el servicio de Internet y de telefonía pública o Cantv, aclararon algunos gerentes de las entidades bancarias.|Tras el restablecimiento de las actividades económicas del país, luego del apagón que dejó sin servicio eléctrico a todo el territorio nacional desde las 5:00 pm del  jueves pasado, el sector bancario nacional, tanto público como privado, empezó a partir de este jueves un horario especial de atención al público en sus agencias comprendido de 9:00 am a 2:00 pm.|El operativo especial fue producto de un llamado “extraoficial” de la Superintendencia de las Instituciones del Sector Bancario (Sudeban) que pidió a los representantes de las entidades financieras mantener de alguna manera las actividades operativas, la cual encontró receptividad por los banqueros.|Las autoridades del organismo regulador sostuvieron este jueves reuniones con los representantes de la banca pública y privada  a quienes les solicitaron mantener la continuidad operativa de los servicios entre ellos el funcionamiento de agencias, uso de la banca electrónica, puntos de ventas y cajeros automáticos en todo el país.|Al encuentro asistieron funcionarios del Banco Central de Venezuela (BCV) y algunos representantes del Ejecutivo Nacional, entre ellos del Ministerio de Finanzas.|Debido al apagón que se registró el jueves pasado, el sector bancario estuvo paralizado durante siete días a partir a partir del pasado viernes.|Largas colas|La falta de dinero en efectivo para la compra al menudeo y pago de servicios públicos, entre ellos el transporte de pasajeros, obligó a miles de venezolanos hacer colas desde tempranas horas de la mañana en las distintas entidades bancarias del país.|En la sede principal del Banco de Venezuela (BDV), la cola doblaba la esquina de Las Gradilla, ubicada al lado sureste de la Plaza Bolívar, hasta llegar a la Plaza El Venezolano, pasando la cuadra de Bolívar, sector que integra el casco histórico de Caracas.|Las imágenes, aunque en menor cuantía, se repetían en otras entidades bancarias como Fondo Común, Mercantil, Banesco, Banplus, Tesoro, Banco Nacional de Crédito, Occidental de Descuento, el Venezolano y Provincial, entre otros, donde las colas para las taquillas eran bastante larga, además del aglomeramiento en las entradas de esos establecimientos.</t>
+  </si>
+  <si>
+    <t>http://mmedia.eluniversal.com/17970/colas-en-el-banco-de-venezuela-bdv-19519.jpg</t>
+  </si>
+  <si>
+    <t>La banca pública y privada implementó un operativo en horario especial</t>
+  </si>
+  <si>
+    <t>Reportan largas colas en busca de dinero en efectivo</t>
+  </si>
+  <si>
+    <t>http://www.eluniversal.com/economia/35373/reportan-largas-colas-en-busca-de-dinero-en-efectivo</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Caracas.- En nuestra edición impresa de este viernes 15 de marzo publicamos en la página 1-4, correspondiente a la sección de Economía, una información que se titula|, lo cual constituye un error, pues en realidad la producción de petróleo nacional, según el reporte de la Organización de Países Exportadores de Petróleo (OPEP), llegó en febrero a un millón ocho barriles por día. Pedimos disculpas a nuestros lectores por este error.|Según el informe de la agrupación petrolera, en febrero de 2019 la producción local de petróleo se contrajo en 142.000 b/d en promedio, con respecto a enero del mismo año.</t>
+  </si>
+  <si>
+    <t>http://mmedia.eluniversal.com/17970/pdvsa-19531.jpg</t>
+  </si>
+  <si>
+    <t>En febrero de 2019 la producción local de petróleo se contrajo en 142.000 b/d</t>
+  </si>
+  <si>
+    <t>Fe de errata: Según la OPEP la producción petrolera de Venezuela se redujo a un millón de b/d, no en un millón de b/d</t>
+  </si>
+  <si>
+    <t>http://www.eluniversal.com/economia/35387/fe-de-errata-segun-la-opep-la-produccion-petrolera-de-venezuela-se-redujo-a-un-millon-de-bd-no-en</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La aerolínea estadounidense American Airlines suspendió sus vuelos a y desde  Venezuela este viernes.|Una fuente confirmó a El Nacional que a partir de este sábado realizarán un vuelo diario hasta el próximo viernes, cuando se prevé que restablezcan el tráfico aéreo habitual hacia el país.|Reuters aserguró que el sindicato de la aerolínea, American Airlines Group Inc, emitió un comunicado en el que aseguran que los pilotos de dicha empresa no deben volar a Venezuela.|Explicaron que el sindicato señaló que las protestas que se desarrollan en el país, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>las detenciones de estadounidenses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y las condiciones de salud en Venezuela son parte de las razones que habrían llevado a la aerolínea a suspender sus vuelos.|Correo recibido por la fuente de El Nacional sobre la cancelación del vuelo de American Airlines</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -993,13 +1292,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1039,6 +1350,10 @@
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="201903140934DataSin18yContexto" connectionId="6" xr16:uid="{9ECD0F93-CB9F-8342-956D-AF0BB9461351}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="201903151104Data" connectionId="7" xr16:uid="{EA31F72A-7396-5C4A-A803-8F502AAD6031}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3620,7 +3935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C260AB7-E026-A643-87D2-5F1D6FA94B3D}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -4076,4 +4391,646 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8004B3A-78FC-1D49-9D69-47752910BCD6}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="87.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="77.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="80.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43539</v>
+      </c>
+      <c r="F2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2">
+        <v>274793</v>
+      </c>
+      <c r="H2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M2" t="s">
+        <v>263</v>
+      </c>
+      <c r="N2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43539</v>
+      </c>
+      <c r="F3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3">
+        <v>274790</v>
+      </c>
+      <c r="H3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" t="s">
+        <v>269</v>
+      </c>
+      <c r="M3" t="s">
+        <v>270</v>
+      </c>
+      <c r="N3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43539</v>
+      </c>
+      <c r="F4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4">
+        <v>274792</v>
+      </c>
+      <c r="H4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>276</v>
+      </c>
+      <c r="M4" t="s">
+        <v>277</v>
+      </c>
+      <c r="N4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2">
+        <v>43539</v>
+      </c>
+      <c r="F5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G5">
+        <v>274789</v>
+      </c>
+      <c r="H5" t="s">
+        <v>281</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L5" t="s">
+        <v>282</v>
+      </c>
+      <c r="M5" t="s">
+        <v>283</v>
+      </c>
+      <c r="N5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="7">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43539</v>
+      </c>
+      <c r="F6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G6">
+        <v>274724</v>
+      </c>
+      <c r="H6" t="s">
+        <v>288</v>
+      </c>
+      <c r="I6" t="s">
+        <v>289</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L6" t="s">
+        <v>291</v>
+      </c>
+      <c r="M6" t="s">
+        <v>292</v>
+      </c>
+      <c r="N6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="204" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43539</v>
+      </c>
+      <c r="F7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G7">
+        <v>274787</v>
+      </c>
+      <c r="H7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I7" t="s">
+        <v>297</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M7" t="s">
+        <v>299</v>
+      </c>
+      <c r="N7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2">
+        <v>43539</v>
+      </c>
+      <c r="F8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G8">
+        <v>274786</v>
+      </c>
+      <c r="H8" t="s">
+        <v>303</v>
+      </c>
+      <c r="I8" t="s">
+        <v>304</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" t="s">
+        <v>305</v>
+      </c>
+      <c r="M8" t="s">
+        <v>306</v>
+      </c>
+      <c r="N8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="323" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43539</v>
+      </c>
+      <c r="F9" s="3">
+        <v>43539.418749999997</v>
+      </c>
+      <c r="G9">
+        <v>35400</v>
+      </c>
+      <c r="H9" t="s">
+        <v>310</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" t="s">
+        <v>311</v>
+      </c>
+      <c r="M9" t="s">
+        <v>312</v>
+      </c>
+      <c r="N9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2">
+        <v>43539</v>
+      </c>
+      <c r="F10" s="3">
+        <v>43539.394444444442</v>
+      </c>
+      <c r="G10">
+        <v>35392</v>
+      </c>
+      <c r="H10" t="s">
+        <v>315</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L10" t="s">
+        <v>317</v>
+      </c>
+      <c r="M10" t="s">
+        <v>318</v>
+      </c>
+      <c r="N10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="2">
+        <v>43539</v>
+      </c>
+      <c r="F11" s="3">
+        <v>43539.229166666664</v>
+      </c>
+      <c r="G11">
+        <v>35372</v>
+      </c>
+      <c r="H11" t="s">
+        <v>321</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" t="s">
+        <v>322</v>
+      </c>
+      <c r="M11" t="s">
+        <v>323</v>
+      </c>
+      <c r="N11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43539</v>
+      </c>
+      <c r="F12" s="3">
+        <v>43539.229166666664</v>
+      </c>
+      <c r="G12">
+        <v>35378</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" t="s">
+        <v>326</v>
+      </c>
+      <c r="M12" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2">
+        <v>43539</v>
+      </c>
+      <c r="F13" s="3">
+        <v>43539.229166666664</v>
+      </c>
+      <c r="G13">
+        <v>35373</v>
+      </c>
+      <c r="H13" t="s">
+        <v>330</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" t="s">
+        <v>331</v>
+      </c>
+      <c r="M13" t="s">
+        <v>332</v>
+      </c>
+      <c r="N13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43539</v>
+      </c>
+      <c r="F14" s="3">
+        <v>43539.229166666664</v>
+      </c>
+      <c r="G14">
+        <v>35387</v>
+      </c>
+      <c r="H14" t="s">
+        <v>336</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" t="s">
+        <v>337</v>
+      </c>
+      <c r="M14" t="s">
+        <v>338</v>
+      </c>
+      <c r="N14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/uso/data/dataCompletaMarzo.xlsx
+++ b/uso/data/dataCompletaMarzo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariapaulaherrero/Documents/documentosPersonal/My Documents/ucv/maestria/MD/MDproyecto/codigo/uso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E1C546-08A3-AB40-BF75-8C5DA30AE666}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CA6420-88D7-D049-949D-793713114DE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="6" xr2:uid="{A8B5CC01-5788-7E41-B20A-C97266322DE8}"/>
+    <workbookView xWindow="1980" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{A8B5CC01-5788-7E41-B20A-C97266322DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="201903130932Data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="201903140917Data" sheetId="4" r:id="rId4"/>
     <sheet name="201903140928Data" sheetId="5" r:id="rId5"/>
     <sheet name="201903140934DataSin18yContexto" sheetId="6" r:id="rId6"/>
-    <sheet name="Hoja1" sheetId="7" r:id="rId7"/>
+    <sheet name="201903151104Data" sheetId="7" r:id="rId7"/>
+    <sheet name="Hoja2" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_201903130932Data" localSheetId="0">'201903130932Data'!$A$1:$N$10</definedName>
@@ -28,7 +29,8 @@
     <definedName name="_201903140917Data" localSheetId="3">'201903140917Data'!$A$1:$N$13</definedName>
     <definedName name="_201903140928Data" localSheetId="4">'201903140928Data'!$A$1:$N$10</definedName>
     <definedName name="_201903140934DataSin18yContexto" localSheetId="5">'201903140934DataSin18yContexto'!$A$1:$N$10</definedName>
-    <definedName name="_201903151104Data" localSheetId="6">Hoja1!$A$1:$N$14</definedName>
+    <definedName name="_201903151104Data" localSheetId="6">'201903151104Data'!$A$1:$N$14</definedName>
+    <definedName name="_201903151219Data" localSheetId="7">Hoja2!$A$1:$O$13</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -187,11 +189,31 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="8" xr16:uid="{17E41140-2C62-B74B-B8CE-FF82B176CEAA}" name="201903151219Data" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/mariapaulaherrero/Documents/documentosPersonal/My Documents/ucv/maestria/MD/MDproyecto/codigo/uso/data/201903151219Data.csv" decimal="," thousands="." tab="0" semicolon="1">
+      <textFields count="14">
+        <textField type="text"/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="400">
   <si>
     <t>autor</t>
   </si>
@@ -1238,6 +1260,183 @@
       <t xml:space="preserve"> y las condiciones de salud en Venezuela son parte de las razones que habrían llevado a la aerolínea a suspender sus vuelos.|Correo recibido por la fuente de El Nacional sobre la cancelación del vuelo de American Airlines</t>
     </r>
   </si>
+  <si>
+    <t>El Sindicato Nacional de Periodistas denunció este viernes que el periodista polaco, Tomasz Surdel, fue golpedado, presuntamente, por funcionarios de las Fuerzas de Acciones Especiales. El sindicato indicó que Surdel recibió golpes en las costillas y fue amedrentado con una pistola.|'Este viernes, el periodista polaco Tomasz Surdel, del diario Gazeta Wyborcza, fue detenido y golpeado por efectivos de la FAES', escribió el SNTP en Twitter.|La organización detalló que el periodista fue detenido cuando se desplazaba por Bello Monte.|'Me golpearon con algo duro, principalmente en la cara. También recibí golpes en la costilla. Cuando terminaron y me sacaron la cabeza del saco, vi el cañón de la pistola frente a mis ojos', contó Tomasz Surdel al SNTP.</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>2019-03-74T12:06:00-0400</t>
+  </si>
+  <si>
+    <t>http://en-cdnmed.agilecontent.com//resources/jpg/6/8/1552665896986.jpg</t>
+  </si>
+  <si>
+    <t>El Sindicato Nacional de Periodista explicó que Tomasz Surdel fue detenido cuando se desplazaba por Bello Monte, Caracas</t>
+  </si>
+  <si>
+    <t>Denuncian que periodista polaco fue golpeado por funcionarios del FAES</t>
+  </si>
+  <si>
+    <t>http://www.el-nacional.com/noticias/sociedad/denuncian-que-periodista-polaco-fue-golpeado-por-funcionarios-del-faes_274811</t>
+  </si>
+  <si>
+    <t>Ricardo Berrios, presidente de Fedecámaras del estado Trujillo, señaló que el sector de productos cárnicos y lácticos sufrió grandes pérdidas debido al apagón masivo que se generó el pasado 7 de marzo.|En el sector de Boconó se presentaron casos de saqueo, en un supermercado se perdió 30% de la mercancía. Además se registró un ataque a la emisora Trujillo 102.5 FM, donde lanzaron bombas molotov a la planta eléctrica.|El sector empresarial encargado de la producción y  comercialización de alimentos se detuvo debido al apagón, lo que trajo como consecuencia el desabastecimiento en la localidad andina.</t>
+  </si>
+  <si>
+    <t>2019-03-74T11:56:00-0400</t>
+  </si>
+  <si>
+    <t>http://en-cdnmed.agilecontent.com//resources/jpg/3/4/1552663045743.jpg</t>
+  </si>
+  <si>
+    <t>Economía, Trujillo</t>
+  </si>
+  <si>
+    <t>El presidente de Fedecámaras (Trujillo), Ricardo Berrios, informó que la entidad andina se encuentra desabastecida tras el apagón nacional </t>
+  </si>
+  <si>
+    <t>Sector de productos cárnicos y lácticos sufrió grandes pérdidas en Trujillo</t>
+  </si>
+  <si>
+    <t>http://www.el-nacional.com/noticias/economia/sector-productos-carnicos-lacticos-sufrio-grandes-perdidas-trujillo_274802</t>
+  </si>
+  <si>
+    <t>Luis Motta Domínguez indicó este viernes, vía Instagram, que la casa de máquinas de electricidad que trabaja en el Guri no se destruyó, ni explotó, luego del apagón nacional que se generó el 7 de marzo.|'La casa de máquinas número 2 de Guri con sus 10 generadores, como pueden observar, no hay destrucción, ni explosión', señaló Domínguez mediante un video.|Domínguez señaló que los 10 generadores de las dos casas de máquinas del Guri están trabajando 'con completa normalidad', y además mostró un video en el que se observa los generadores.</t>
+  </si>
+  <si>
+    <t>2019-03-74T11:46:00-0400</t>
+  </si>
+  <si>
+    <t>http://en-cdnmed.agilecontent.com//resources/jpg/5/2/1540248125225.jpg</t>
+  </si>
+  <si>
+    <t>Luz, Corpoelec, Sociedad</t>
+  </si>
+  <si>
+    <t>El director de Corpoelec señaló que los generadores están trabajando con “completa normalidad”</t>
+  </si>
+  <si>
+    <t>Motta Domínguez: No hay destrucción o explosión en máquinas del Guri</t>
+  </si>
+  <si>
+    <t>http://www.el-nacional.com/noticias/sociedad/motta-dominguez-hay-destruccion-explosion-maquinas-del-guri_274809</t>
+  </si>
+  <si>
+    <t>Un grupo de ciudadanos cerró el acceso a la carretera Panamericana, en el estado Miranda, específicamente a la altura de Los Lagos, para protestar por la falta de servicios públicos.|De acuerdo con información compartida por el periodista Daniel Murolo, los manifestantes bloquearon la vía en ambos sentidos este viernes.|Los vecinos del sector están sin agua desde el 7 de marzo, día del apagón nacional que se prolongó por varios días.</t>
+  </si>
+  <si>
+    <t>2019-03-74T11:43:00-0400</t>
+  </si>
+  <si>
+    <t>http://en-cdnmed.agilecontent.com//resources/jpg/3/7/1552664035773.jpg</t>
+  </si>
+  <si>
+    <t>Protestas</t>
+  </si>
+  <si>
+    <t>Los ciudadanos trancaron la vía a la altura de Los Lagos </t>
+  </si>
+  <si>
+    <t>Protestan en la Panamericana por falta de agua</t>
+  </si>
+  <si>
+    <t>http://www.el-nacional.com/noticias/protestas/protestan-panamericana-por-falta-agua_274808</t>
+  </si>
+  <si>
+    <t>Los restos del dictador español Francisco Franco serán exhumados del mausoleo donde yacen desde 1975 y reinhumados el 10 de junio en un cementerio cerca de Madrid, anunció este viernes la vicepresidenta del gobierno, Carmen Calvo.|'La reinhumación de los restos de Franco será el 10 de junio por la mañana, y el lugar al que irán será el panteón de Mingorrubio-El Pardo, que es de titularidad estatal', y se encuentra en las afueras de Madrid, explicó la dirigente socialista.|El lugar 'reúne las condiciones idóneas de seguridad y de adecuación para recibir con decoro y con respeto los restos', y allí además está Carmen Polo, la esposa del general que tras ganar la Guerra Civil de 1936-1939 dirigiera España desde ese año y hasta su muerte en 1975, puntualizó Carmen Calvo.|La medida tiene dos problemas, el primero es que se llevará a cabo tras las elecciones legislativas del 28 de abril, de las que podría salir un ejecutivo conservador y reacio a la medida. Carmen Calvo dijo en respuesta que el gabinete de turno 'lo tiene que hacer', obligado por las medidas adoptadas hasta ahora.|El otro obstáculo es el recurso presentado por los nietos del dictador ante el Tribunal Supremo, que podría suspender cautelarmente la exhumación.|La tumba del general gallego, accesible al público y reverenciada por sus nostálgicos, se encuentra en el altar de la basílica, siempre cubierta de flores frescas, una 'tumba de Estado' y de 'exaltación' que para el gobierno socialista es inaceptable.La iniciativa de sacar a Franco del Valle de los Caídos fue anunciada en junio pasado por el presidente del gobierno Pedro Sánchez, pocos días después de llegar al poder.</t>
+  </si>
+  <si>
+    <t>2019-03-74T11:26:00-0400</t>
+  </si>
+  <si>
+    <t>http://en-cdnmed.agilecontent.com//resources/jpg/4/2/1552664276424.jpg</t>
+  </si>
+  <si>
+    <t>España, Mundo</t>
+  </si>
+  <si>
+    <t>Los restos del Generalísimo pasarán de un mausoleo solemne a un cementerio del Estado, aunque sus nietos aún recurren la medida</t>
+  </si>
+  <si>
+    <t>Franco será exhumado de su mausoleo y reinhumado en otro lugar</t>
+  </si>
+  <si>
+    <t>http://www.el-nacional.com/noticias/mundo/franco-sera-exhumado-mausoleo-reinhumado-otro-lugar_274805</t>
+  </si>
+  <si>
+    <t>El representante especial de Venezuela ante el Grupo de Lima, Julio Borges, denunció este viernes que Cuba ha infiltrado las reuniones del Estado Mayor Superior del régimen de Nicolás Maduro, y que esto refleja el quiebre que existe dentro de la Fuerza Armada venezolana.|'Nos informan desde adentro de nuestra Fuerza Armada que 4 agentes cubanos, del más alto nivel, han asistido a las últimas reuniones del Estado Mayor Superior de la Fuerza Armada. Esto es una clara muestra de que Nicolás Maduro ya no confía en la institución militar, por eso la entrega y la sumisión a cuba es total', señaló.|Borges destacó la importancia de que hoy la presión internacional no solo se centre en Maduro, sino también en Cuba. 'Nicolás Maduro sigue en el poder en Venezuela gracias a los cubanos que son quienes manejan todo el aparato represivo contra la Fuerza Armada venezolana y los factores democráticos. Ante eso, es muy importante que el mundo libre no solo presione a la dictadura de Maduro, sino también al régimen cubano', indicó.|El coordinador nacional de Primero Justicia también puntualizó que pese a la crisis que atraviesa el país, Maduro continúa subsidiando económicamente a Cuba con petróleo venezolano. En este sentido, el diputado recalcó que Venezuela hoy financia con crudo 20% del PIB de Cuba, a su juicio esta es la principal razón por la que la isla frena el cambio político dentro del país.|Por último, Borges reiteró que solo con la salida de Cuba de Venezuela se puede derribar el Muro de Berlín en América Latina y con ello, iniciar una nueva etapa de democracia y crecimiento económico para toda la región.|Con información de nota de prensa</t>
+  </si>
+  <si>
+    <t>2019-03-74T11:10:00-0400</t>
+  </si>
+  <si>
+    <t>http://en-cdnmed.agilecontent.com//resources/jpg/4/3/1552662595534.jpg</t>
+  </si>
+  <si>
+    <t>El coordinador del partido Primero Justicia (PJ) señaló que Maduro continúa subsidiando económicamente a Cuba con petróleo venezolano</t>
+  </si>
+  <si>
+    <t>Julio Borges denuncia infiltración cubana en el Estado Mayor de la FANB</t>
+  </si>
+  <si>
+    <t>http://www.el-nacional.com/noticias/politica/julio-borges-denuncia-infiltracion-cubana-estado-mayor-fanb_274804</t>
+  </si>
+  <si>
+    <t>París.- La caída de la producción petrolera en Venezuela, causada por un gigantesco apagón eléctrico, podría plantear un problema para el suministro del mercado por lo que sería necesario acudir a las capacidades suplementarias de Arabia Saudita, indicó el viernes la Agencia Internacional de Energía (AIE).|'La semana pasada, las operaciones del sector (petrolero venezolano) quedaron seriamente perturbadas y las pérdidas actuales a gran escala podrían plantear una dificultad para el mercado' dice la AIE en su informe mensual sobre el petróleo.|Venezuela sufrió un gigantesco fallo eléctrico que afectó en especial a la actividad de la compañía petrolera pública Pdvsa, crucial para la economía local.|'Aunque hay señales de que la situación mejora, la degradación del sistema eléctrico es tal que no podemos estar seguros de que las reparaciones sean duraderas' dijo la agencia con sede en París.|La producción de Venezuela se había estabilizado en torno a 1,2 millones de barriles diarios (mbd). La cifra corresponde también al volumen de reducción voluntaria de la producción decidida por la Organización de Países Exportadores de Petróleo (OPEP) y Rusia para sostener las cotizaciones del crudo, destaca la AIE.|En total, los miembros del cartel -exceptuando a Irán y Venezuela- disponen de 2,8 mbd de capacidad de producción suplementaria (dos terceras partes en Arabia Saudita), según los cálculos de la AIE.|'En caso de pérdida importante de la producción procedente de Venezuela, los medios potenciales para evitar una grave perturbación del mercado están al alcance de la mano' indica la agencia.|Según un informe de la OPEP publicado el jueves, la producción de crudo en Venezuela cayó durante febrero, antes del apagón, en 142 mil barriles al día hasta poco más de 1 mbd.</t>
+  </si>
+  <si>
+    <t>La Agencia Internacional de Energía comentó 'no estar segura' de la durabilidad de las reparaciones</t>
+  </si>
+  <si>
+    <t>AMY TORRES</t>
+  </si>
+  <si>
+    <t>Once parroquias deben reducir 50% el consumo con el fin de garantizar la estabilidad del sistema eléctrico arrancó un plan de administración de cargas este miércoles, luego de ser restituido el servicio al 100% en las 11 parroquias de Vargas.|El plan consiste en quitar el fluido eléctrico en las parroquias que sean necesarias -normalmente es entre dos o tres- para mantener el servicio eléctrico en el resto, según se conoció extraoficialmente.|Miércoles y jueves las parroquias que se han quedado sin luz como parte de este racionamiento han sido Maiquetía, Catia la Mar, Urimare y Caraballeda, de acuerdo con reportes de los vecinos.|Normalmente la suspensión del servicio ocurre por dos o cuatro horas, según la necesidad que haya para el momento.  Precisamente este jueves el gobernador Jorge Luis García Carneiro explicaba a su salida de una reunión en la sede principal de Corpoelec en Caracas, a la que asistió con el alcalde José Terán, que era necesaria la disminución del 50% del consumo eléctrico en el estado.|La información la dio a conocer a través de su cuenta en la red social Instagram, desde donde invitó a los varguenses a hacer uso eficiente y consciente del servicio.</t>
+  </si>
+  <si>
+    <t>http://mmedia.eluniversal.com/17970/las-tunitas-19550.jpg</t>
+  </si>
+  <si>
+    <t>Miércoles y jueves las parroquias que se han quedado sin luz como parte de este racionamiento han sido Maiquetía, Catia la Mar, Urimare y Caraballeda, de acuerdo con reportes de los vecinos</t>
+  </si>
+  <si>
+    <t>Aplican Plan de Administración de Cargas en el Litoral Central</t>
+  </si>
+  <si>
+    <t>http://www.eluniversal.com/caracas/35394/aplican-plan-de-administracion-de-cargas-en-el-litoral-central</t>
+  </si>
+  <si>
+    <t>Al menos un 25% de la población del municipio Baruta permanece si en servicio eléctrico, mientras que el 75% ya cuenta con luz en sus casas, según informó el alcalde de la entidad, Darwin González.|Entre los sectores que siguen sin luz desde el pasado 7 de marzo se encuentran Alto Prado, Prados del Este, Club Hípico, Charallavito, Ciudadela, Santa Cruz del Este, Las Minas de Baruta, Santa Inés, Las Mesetas y Parque Tamanaco.|En Santa Fe, La Alameda, Los Campitos, Las Mesetas y La Trinidad ya fue restablecido el servicio eléctrico.|El burgomaestre informó que los funcionarios de la Policía de Baruta permanecen en desplegados en los operativos de vigilancia para garantizar la seguridad en las localidades que siguen sin luz.|Además, indicó que los habitantes del municipio pueden comunicarse a través del número telefónico 0212-903-8511 para reportar asuntos de la zona.|La alcaldía de Baruta comunicó, a través de su cuenta en Twitter, que continúan las labores para restablecer el servicio en su totalidad.</t>
+  </si>
+  <si>
+    <t>http://mmedia.eluniversal.com/17843/corpoelec-10086.jpg</t>
+  </si>
+  <si>
+    <t>Entre los sectores que siguen sin el servicio se encuentran Alto Prado, Prados del Este, Club Hípico, Charallavito, Ciudadela, Santa Cruz del Este, Las Minas de Baruta y Santa Inés</t>
+  </si>
+  <si>
+    <t>Al menos un 25% de la población de Baruta sigue sin luz</t>
+  </si>
+  <si>
+    <t>http://www.eluniversal.com/caracas/35390/al-menos-un-25-de-la-poblacion-de-baruta-sigue-sin-luz</t>
+  </si>
+  <si>
+    <t>Derecho esperado</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>no se, puede estar correcto</t>
+  </si>
+  <si>
+    <t>eliminar cat</t>
+  </si>
+  <si>
+    <t>no, opinión</t>
+  </si>
 </sst>
 </file>
 
@@ -1260,7 +1459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1279,6 +1478,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1292,16 +1503,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1311,6 +1519,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1354,6 +1565,10 @@
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="201903151104Data" connectionId="7" xr16:uid="{EA31F72A-7396-5C4A-A803-8F502AAD6031}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="201903151219Data" connectionId="8" xr16:uid="{6F3B0CB2-1135-0D4D-89EF-6D5C1145826D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1655,7 +1870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFD1271-15A8-FB4B-8CC3-CB6CDC81C69F}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2121,7 +2336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EDA894-219D-9641-BD43-4B6A5F0D975C}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -4397,34 +4612,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8004B3A-78FC-1D49-9D69-47752910BCD6}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="87.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="80.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="77.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="80.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -4445,7 +4660,7 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="L1" t="s">
@@ -4458,17 +4673,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="2">
@@ -4489,7 +4704,7 @@
       <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>192</v>
       </c>
       <c r="L2" t="s">
@@ -4502,17 +4717,17 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>95</v>
       </c>
       <c r="E3" s="2">
@@ -4533,7 +4748,7 @@
       <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>104</v>
       </c>
       <c r="L3" t="s">
@@ -4546,17 +4761,17 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="2">
@@ -4577,7 +4792,7 @@
       <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="L4" t="s">
@@ -4590,17 +4805,17 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="2">
@@ -4621,7 +4836,7 @@
       <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>126</v>
       </c>
       <c r="L5" t="s">
@@ -4634,17 +4849,17 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>285</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>18</v>
       </c>
       <c r="E6" s="2">
@@ -4665,7 +4880,7 @@
       <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>290</v>
       </c>
       <c r="L6" t="s">
@@ -4678,17 +4893,17 @@
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="204" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="2">
@@ -4709,7 +4924,7 @@
       <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="L7" t="s">
@@ -4722,17 +4937,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="2">
@@ -4753,7 +4968,7 @@
       <c r="J8" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>42</v>
       </c>
       <c r="L8" t="s">
@@ -4766,17 +4981,17 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="323" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B9" t="s">
         <v>308</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>67</v>
       </c>
       <c r="E9" s="2">
@@ -4797,7 +5012,7 @@
       <c r="J9" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="6" t="s">
         <v>88</v>
       </c>
       <c r="L9" t="s">
@@ -4810,17 +5025,17 @@
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>249</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="2">
@@ -4841,7 +5056,7 @@
       <c r="J10" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>316</v>
       </c>
       <c r="L10" t="s">
@@ -4854,17 +5069,17 @@
         <v>319</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B11" t="s">
         <v>249</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>95</v>
       </c>
       <c r="E11" s="2">
@@ -4885,7 +5100,7 @@
       <c r="J11" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>88</v>
       </c>
       <c r="L11" t="s">
@@ -4898,17 +5113,17 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="2">
@@ -4929,7 +5144,7 @@
       <c r="J12" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="6" t="s">
         <v>88</v>
       </c>
       <c r="L12" t="s">
@@ -4942,17 +5157,17 @@
         <v>327</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B13" t="s">
         <v>328</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="2">
@@ -4973,7 +5188,7 @@
       <c r="J13" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>88</v>
       </c>
       <c r="L13" t="s">
@@ -4986,17 +5201,17 @@
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B14" t="s">
         <v>249</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="2">
@@ -5017,7 +5232,7 @@
       <c r="J14" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="6" t="s">
         <v>88</v>
       </c>
       <c r="L14" t="s">
@@ -5028,6 +5243,644 @@
       </c>
       <c r="N14" t="s">
         <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBB0246-DE22-6B45-A202-0D372A55C456}">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="80.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H2">
+        <v>274811</v>
+      </c>
+      <c r="I2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" t="s">
+        <v>345</v>
+      </c>
+      <c r="N2" t="s">
+        <v>346</v>
+      </c>
+      <c r="O2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G3" t="s">
+        <v>349</v>
+      </c>
+      <c r="H3">
+        <v>274802</v>
+      </c>
+      <c r="I3" t="s">
+        <v>350</v>
+      </c>
+      <c r="J3" t="s">
+        <v>351</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3" t="s">
+        <v>352</v>
+      </c>
+      <c r="N3" t="s">
+        <v>353</v>
+      </c>
+      <c r="O3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G4" t="s">
+        <v>356</v>
+      </c>
+      <c r="H4">
+        <v>274809</v>
+      </c>
+      <c r="I4" t="s">
+        <v>357</v>
+      </c>
+      <c r="J4" t="s">
+        <v>358</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" t="s">
+        <v>359</v>
+      </c>
+      <c r="N4" t="s">
+        <v>360</v>
+      </c>
+      <c r="O4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G5" t="s">
+        <v>363</v>
+      </c>
+      <c r="H5">
+        <v>274808</v>
+      </c>
+      <c r="I5" t="s">
+        <v>364</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>365</v>
+      </c>
+      <c r="M5" t="s">
+        <v>366</v>
+      </c>
+      <c r="N5" t="s">
+        <v>367</v>
+      </c>
+      <c r="O5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F6" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H6">
+        <v>274805</v>
+      </c>
+      <c r="I6" t="s">
+        <v>371</v>
+      </c>
+      <c r="J6" t="s">
+        <v>372</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>192</v>
+      </c>
+      <c r="M6" t="s">
+        <v>373</v>
+      </c>
+      <c r="N6" t="s">
+        <v>374</v>
+      </c>
+      <c r="O6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H7">
+        <v>274804</v>
+      </c>
+      <c r="I7" t="s">
+        <v>378</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>379</v>
+      </c>
+      <c r="N7" t="s">
+        <v>380</v>
+      </c>
+      <c r="O7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>396</v>
+      </c>
+      <c r="F8" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G8" s="3">
+        <v>43539.418749999997</v>
+      </c>
+      <c r="H8">
+        <v>35400</v>
+      </c>
+      <c r="I8" t="s">
+        <v>310</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="s">
+        <v>383</v>
+      </c>
+      <c r="N8" t="s">
+        <v>312</v>
+      </c>
+      <c r="O8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G9" s="3">
+        <v>43539.413888888892</v>
+      </c>
+      <c r="H9">
+        <v>35394</v>
+      </c>
+      <c r="I9" t="s">
+        <v>386</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" t="s">
+        <v>316</v>
+      </c>
+      <c r="M9" t="s">
+        <v>387</v>
+      </c>
+      <c r="N9" t="s">
+        <v>388</v>
+      </c>
+      <c r="O9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" t="s">
+        <v>314</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>396</v>
+      </c>
+      <c r="F10" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G10" s="3">
+        <v>43539.394444444442</v>
+      </c>
+      <c r="H10">
+        <v>35392</v>
+      </c>
+      <c r="I10" t="s">
+        <v>315</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M10" t="s">
+        <v>317</v>
+      </c>
+      <c r="N10" t="s">
+        <v>318</v>
+      </c>
+      <c r="O10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" t="s">
+        <v>390</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F11" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G11" s="3">
+        <v>43539.383333333331</v>
+      </c>
+      <c r="H11">
+        <v>35390</v>
+      </c>
+      <c r="I11" t="s">
+        <v>391</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" t="s">
+        <v>316</v>
+      </c>
+      <c r="M11" t="s">
+        <v>392</v>
+      </c>
+      <c r="N11" t="s">
+        <v>393</v>
+      </c>
+      <c r="O11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>396</v>
+      </c>
+      <c r="F12" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G12" s="3">
+        <v>43539.229166666664</v>
+      </c>
+      <c r="H12">
+        <v>35387</v>
+      </c>
+      <c r="I12" t="s">
+        <v>336</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" t="s">
+        <v>337</v>
+      </c>
+      <c r="N12" t="s">
+        <v>338</v>
+      </c>
+      <c r="O12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>399</v>
+      </c>
+      <c r="F13" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G13" s="3">
+        <v>43539.229166666664</v>
+      </c>
+      <c r="H13">
+        <v>35378</v>
+      </c>
+      <c r="I13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" t="s">
+        <v>326</v>
+      </c>
+      <c r="N13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/uso/data/dataCompletaMarzo.xlsx
+++ b/uso/data/dataCompletaMarzo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariapaulaherrero/Documents/documentosPersonal/My Documents/ucv/maestria/MD/MDproyecto/codigo/uso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CA6420-88D7-D049-949D-793713114DE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA80E3A-8620-F24C-8708-901CC64DB6AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{A8B5CC01-5788-7E41-B20A-C97266322DE8}"/>
+    <workbookView xWindow="1980" yWindow="460" windowWidth="28040" windowHeight="17440" firstSheet="2" activeTab="9" xr2:uid="{A8B5CC01-5788-7E41-B20A-C97266322DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="201903130932Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <sheet name="201903140928Data" sheetId="5" r:id="rId5"/>
     <sheet name="201903140934DataSin18yContexto" sheetId="6" r:id="rId6"/>
     <sheet name="201903151104Data" sheetId="7" r:id="rId7"/>
-    <sheet name="Hoja2" sheetId="8" r:id="rId8"/>
+    <sheet name="201903151219Data" sheetId="8" r:id="rId8"/>
+    <sheet name="201903151513Data" sheetId="9" r:id="rId9"/>
+    <sheet name="201903151538Data" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_201903130932Data" localSheetId="0">'201903130932Data'!$A$1:$N$10</definedName>
@@ -30,7 +32,9 @@
     <definedName name="_201903140928Data" localSheetId="4">'201903140928Data'!$A$1:$N$10</definedName>
     <definedName name="_201903140934DataSin18yContexto" localSheetId="5">'201903140934DataSin18yContexto'!$A$1:$N$10</definedName>
     <definedName name="_201903151104Data" localSheetId="6">'201903151104Data'!$A$1:$N$14</definedName>
-    <definedName name="_201903151219Data" localSheetId="7">Hoja2!$A$1:$O$13</definedName>
+    <definedName name="_201903151219Data" localSheetId="7">'201903151219Data'!$A$1:$O$13</definedName>
+    <definedName name="_201903151513Data" localSheetId="8">'201903151513Data'!$A$1:$O$13</definedName>
+    <definedName name="_201903151538Data" localSheetId="9">'201903151538Data'!$A$1:$O$12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -209,11 +213,51 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="9" xr16:uid="{FF190F4E-E666-2C4A-90F0-3060FBFB4A8A}" name="201903151513Data" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/mariapaulaherrero/Documents/documentosPersonal/My Documents/ucv/maestria/MD/MDproyecto/codigo/uso/data/201903151513Data.csv" decimal="," thousands="." tab="0" semicolon="1">
+      <textFields count="14">
+        <textField type="text"/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="10" xr16:uid="{1D55F579-2337-8348-8C98-403F573385B3}" name="201903151538Data" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/mariapaulaherrero/Documents/documentosPersonal/My Documents/ucv/maestria/MD/MDproyecto/codigo/uso/data/201903151538Data.csv" decimal="," thousands="." tab="0" semicolon="1">
+      <textFields count="14">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="492">
   <si>
     <t>autor</t>
   </si>
@@ -1436,6 +1480,305 @@
   </si>
   <si>
     <t>no, opinión</t>
+  </si>
+  <si>
+    <t>Jorge Castañeda, ex ministro de Relaciones Exteriores de México, criticó este viernes en Buenos Aires que su país se haya visto relegado al 'triste papel' de 'comparsa de Maduro en compañía de Uruguay', tras su anterior liderazgo en el Grupo de Lima contra Venezuela.|Castañeda se pronunció sobre el conflicto venezolano en la conferencia 'La democracia en América Latina: amenazas y oportunidades', celebrada en la Universidad Católica Argentina (UCA) junto a, entre otros, la ex ministra de Educación chilena Mariana Aylwin y el director en Latinoamérica y el Caribe de Idea Internacional, Daniel Zovatto.|'La izquierda latinoamericana en el poder o fuera del poder ha sido terriblemente reprobable por su actitud ante Chávez y Maduro desde un principio', expresó el ex canciller, que ejerció este cargo de 2000 a 2003, con Vicente Fox como presidente.|En este grupo incluyó al nuevo presidente mexicano, Andrés Manuel López Obrador, a quien criticó por su pasividad ante el conflicto venezolano.|'En los últimos dos años, México había jugado un papel de liderazgo en el Grupo de Lima ante el tema de Venezuela y ahora ha quedado relegado al triste papel de ser comparsa de Maduro en compañía de Uruguay', aseguró Castañeda.|Por su parte, la ex ministra chilena Mariana Aylwin opinó que grandes potencias como China y Rusia han sido 'perjudiciales' para la actuación de Naciones Unidas en Venezuela, donde el líder de la Asamblea Nacional, Juan Guaidó, se juramentó como presidente interino del país apoyado por un gran número de países.|Argentina, Brasil, Canadá, Colombia, Costa Rica, Chile, Guatemala, Honduras, Panamá, Paraguay y Perú, aglutinados en el Grupo de Lima, apoyan a Guaidó, al igual que Estados Unidos y la Unión Europea, lo que Castañeda consideró que hace sentir 'muy incómodos' a algunos países sudamericanos por el hecho de alinearse con Donald Trump.|Respecto a este problema, Daniel Zovatto afirmó que no es optar por una 'una opción maniquea entre Trump y Maduro, es optar entre democracia o no en Venezuela'.|Sobre si Maduro debería tener impunidad o no cuando abandonase el poder por supuestos crímenes de lesa humanidad, Aylwin abogó por que se le aplicase una 'justicia gradual' si hay una salida democrática pacífica al conflicto venezolano.|'Los procesos de justicia pasan también por tipos de tribunales o leyes de amnistía en algunos casos. Creo que es probablemente uno de los temas más complejos en las transiciones y que dura muchos años', señaló la ex ministra chilena.|En cuanto a la situación de la democracia en Latinoamérica, foco principal de la conferencia, Zovatto aseguró que la región, azotada por múltiples dictaduras, nunca había tenido 'un proceso democrático tan extendido'.|Sin embargo, también alertó de la alta presión que están sufriendo las democracias de América Latina, y ve con 'enorme preocupación' los indicadores de cultura política, calidad de la democracia, estado de derecho, criminalidad y corrupción.</t>
+  </si>
+  <si>
+    <t>2019-03-74T03:00:00-0400</t>
+  </si>
+  <si>
+    <t>http://en-cdnmed.agilecontent.com//resources/jpg/0/0/1552676578800.jpg</t>
+  </si>
+  <si>
+    <t>Tras la llegada de Andrés Manuel López Obrador a la presidencia mexican, el rol de este país en la resolución del conflicto venezolano ha mermado</t>
+  </si>
+  <si>
+    <t>Ex canciller de México critica que su país sea una 'comparsa de Maduro'</t>
+  </si>
+  <si>
+    <t>http://www.el-nacional.com/noticias/mundo/canciller-mexico-critica-que-pais-sea-una-comparsa-maduro_274852</t>
+  </si>
+  <si>
+    <t>Una multitud sedienta trepaba para recoger agua que caía sobre el putrefacto río Guaire, en Caracas, desde el canal de concreto que bordea la corriente. Luego de varios días del apagón más grande registrado en Venezuela la desesperación por agua crece.|Cuando se enteraron de la fuente, cientos corrieron con botellas, baldes y bidones desde el barrio popular de San Agustín. Unos resbalaban por la pared y caían a las corrientes contaminadas, entre ellos Keisy Pérez, una mulata de 23 años madre de dos niños.|'Uno tiene que venir a cargar agua. Me caí esta mañana, ¡de vaina no me maté!', gritaba enardecida al quejarse de tener varios días sin electricidad, agua ni comida. '¿Están esperando que nos muramos?', recriminó.|Por segundo día una multitud se acercó al punto ubicado en la neurálgica autopista Francisco Fajardo. Conforme se fue difundiendo la existencia del chorro, más personas caminaban apresuradas con envases para tratar de abastecerse, pero luego un grupo de militares les ordenó retirarse.|Enojados por la prohibición, varios vecinos trancaron la vía. 'Tenemos la garganta seca', protestaban frente a los militares.|'No nos dejan agarrar agua', vociferó Carlos, habitante del barrio popular Hornos de Cal, acusando a Nicolás Maduro de querer esconder una realidad cada vez más difícil para los venezolanos.|'¡Queremos agua!, ¡queremos agua para darle a nuestros hijos!', gritaban a los militares unas 300 personas al borde de la autopista.|'No tenemos agua ni para beber', dijo a AFP Marcel Galindez, de 29 años, luego de cargar unos 20 litros del agua que caía desde un orificio en la parte alta del canal. 'Tocará hervirla', expresó con resignación. A su lado, una jovencita se lavaba el cabello con el agua que recién había recogido.|Lavando en fuentes ornamentales|Una mujer rolliza cargaba un balde lleno de ropa que recién lavó en una fuente ornamental en el parque Los Caobos, una extensa zona verde en el centro de Caracas donde otros cientos se acercaban con botellas plásticas y cubetas para cargar aguas marrones estancadas.|'Tenemos que solucionar. Estamos lavando en la fuente de Los Caobos, mañana me toca lavar las sábanas y los paños', dijo la mujer, renuente a dar su nombre.|En otro punto de Caracas cientos hacen largas filas desde hace varios días para recoger agua de pequeños manantiales que fluyen de El Ávila, una cadena montañosa que bordea la capital, decenas también lo hacían en las barriadas de Catia y 23 de Enero, incluida una escuela donde votaba el fallecido presidente Hugo Chávez.|En sectores acomodados como Chacao, camiones cisterna ofrecen el líquido para pago en dólares.|Agobiada por el tumulto para abastecerse, Yulimar, una humilde madre de tres menores, sollozaba en medio de personas que corrían de un lado a otro.|Desde el apagón que cumple cinco días este martes y que Maduro atribuye a un 'ataque cibernético' de Estados Unidos, tanto el agua como la comida escasean en su casa. 'No tengo nada de comer para mis hijos', relató.|Víctimas sin distinción política|Maduro anunció un plan para distribuir comida y agua en barriadas empobrecidas desde el lunes, pero Keisy denunció que tiene un mes sin recibir alimentos subsidiados que el oficialismo dice entregar a seis millones de familias.|'Maduro tanto que habla y no estamos viendo nada, estamos pasando hambre. Aquí nadie sirve, ni los escuálidos, ni los chavistas', espetó la joven madre.|Su vecina Yulimar, aunque reconoce que la situación 'está demasiado brava', excusa a Maduro. 'A pesar de todo esto que está pasando, yo sigo siendo chavista. Ese señor no es malo, no sé qué es lo que le pasa', relató a la AFP.|No obstante, las penurias del apagón le cortan la voz: 'Me dan ganas de llorar, nunca había pasado tanto trabajo como estoy pasando ahorita con mis hijos'.|En el interior del país los largos apagones son costumbre, pero por primera vez Caracas vive un corte tan prolongado, aunque hay servicio intermitente desde el viernes.|'Todo mundo anda desesperado, esto es una locura', describió Eduardo Escalona, de 43 años, mientras miraba asqueado el cauce del Guaire.</t>
+  </si>
+  <si>
+    <t>2019-03-74T02:50:00-0400</t>
+  </si>
+  <si>
+    <t>http://en-cdnmed.agilecontent.com//resources/jpg/4/1/1552673517614.jpg</t>
+  </si>
+  <si>
+    <t>Protestas, Sociedad</t>
+  </si>
+  <si>
+    <t>Los ciudadanos buscan agua en distintas partes de Caracas debido a la carencia del servicio básico</t>
+  </si>
+  <si>
+    <t>Venezolanos desesperados por el agua luego del apagón nacional</t>
+  </si>
+  <si>
+    <t>http://www.el-nacional.com/noticias/sociedad/venezolanos-desesperados-por-agua-luego-del-apagon-nacional_274845</t>
+  </si>
+  <si>
+    <t>Roger Figueroa, presidente de la Cámara Venezolana de la Industria Láctea (Cavilac), afirmó este viernes que la falla en el suministro de energía eléctrica agravó la producción de leche en el país.|'En consecuencia de todo este problemón la industria ha sido severamente castigada básicamente por el tema del frío. Esa situación ha hecho que los productores que no pudieron enfriarla perdieran leche', dijo Figueroa a Unión Radio.|El presidente de Cavilac señaló que perdieron 30% de la producción de leche durante los cinco días del apagón nacional|Figueroa detalló que tres empresas podrían paralizarse debido a la falta de combustible.|Con información de Unión Radio</t>
+  </si>
+  <si>
+    <t>2019-03-74T02:42:00-0400</t>
+  </si>
+  <si>
+    <t>http://en-cdnmed.agilecontent.com//resources/jpg/8/2/1552672977528.jpg</t>
+  </si>
+  <si>
+    <t>El presidente de la organización indicó que tres empresas podrían paralizarse completamente </t>
+  </si>
+  <si>
+    <t>Cavilac aseguró que apagón afectó la producción de leche en el país</t>
+  </si>
+  <si>
+    <t>http://www.el-nacional.com/noticias/sociedad/cavilac-aseguro-que-apagon-afecto-produccion-leche-pais_274842</t>
+  </si>
+  <si>
+    <t>Oswaldo Guillén,  ex manager de los Tiburones de La Guaira, afirmó que en Venezuela cuesta conseguir el agua mientras que la gasolina la regalan.|'¿Cómo es posible que la gasolina la regalen y que el agua te cueste tanto. Aquí no hay nada y este cabrón cínico de Nicolás Maduro dice que está bien', escribió Guillén en Twitter.|Guillén reprochó que contratar un camión cisterna cueste 100 dólares. 'Esto sí es insólito. Aquí se juega con la necesidad del ser humano. Ahora si voy a decir algo: me cago en tu madre Nicolás'.|Asimismo, el manager venezolano aseguró que le daría unos golpes a Maduro. 'Vente solo, sin guardaespaldas, pa' que veas la coñaza que te doy'.</t>
+  </si>
+  <si>
+    <t>2019-03-74T02:41:00-0400</t>
+  </si>
+  <si>
+    <t>http://en-cdnmed.agilecontent.com//resources/jpg/3/5/1552671297253.jpg</t>
+  </si>
+  <si>
+    <t>Nicolás Maduro, Agua, Beisbol, Deporte, Gasolina</t>
+  </si>
+  <si>
+    <t>Deportes</t>
+  </si>
+  <si>
+    <t>El ex manager de los Tiburones de La Guaira aseguró que en Venezuela hay personas que juegan con la necesidad de los ciudadanos </t>
+  </si>
+  <si>
+    <t>El mensaje que le envió Oswaldo Guillen a Nicolás Maduro</t>
+  </si>
+  <si>
+    <t>http://www.el-nacional.com/noticias/deportes/mensaje-que-envio-oswaldo-guillen-nicolas-maduro_274841</t>
+  </si>
+  <si>
+    <t>La Policía colombiana implementó este viernes controles para los migrantes que cruzan por los pasos ilegales conocidos como trochas, en la frontera que une a la ciudad colombiana de Cúcuta, con Venezuela, para evitar el ingreso de personas con antecedentes criminales al país.|El operativo verifica la legalidad de sus documentos de identidad, y se está controlandoqué elementos traen', explicó José Luis Palomino, comandante de la policía metropolitana de Cúcuta.|Palomino informó que se detuvo a cuatro personas que estaban cobrando dinero para permitir el paso por las trochas cercanas al puente internacional Simón Bolívar, principal cruce fronterizo que conecta a Cúcuta con la ciudad venezolana de San Antonio, en el estado de Táchira.|Una de estas trochas, llamada, 'La Marranera', es por donde la venezolana María Pérez, viene a Colombia a diario para trabajar vendiendo frutas en la calle y así poder llevar alimento y medicinas a su hijo con necesidades especiales y a su esposo que tiene cáncer.|'La situación es cada vez más difícil, porque primero no se consiguen las medicinas para mi hijo, y mi esposo está recién operado de un cáncer, es algo muy fuerte', contó Pérez.|Miles de venezolanos cruzan a diario la frontera con Colombia por estos pasos ilegales que se han convertido en la única vía de acceso al alimento, medicinas y servicios públicos que no tienen en su país.|La frontera con Venezuela está cerrada desde el pasado 23 de febrero cuando Nicolás Maduro, rompió relaciones con Colombia y bloqueó los pasos fronterizos tras el intento de diputados de la Asamblea Nacional de llevar ayuda humanitaria, iniciativa que acabó con represión por parte de funcionarios del Estado.</t>
+  </si>
+  <si>
+    <t>2019-03-74T02:33:00-0400</t>
+  </si>
+  <si>
+    <t>http://en-cdnmed.agilecontent.com//resources/jpg/8/7/1552673518878.jpg</t>
+  </si>
+  <si>
+    <t>Colombia, Frontera</t>
+  </si>
+  <si>
+    <t>Un funcionarios de la policía colombiana informó que se detuvo a cuatro personas que estaban cobrando dinero para permitir el paso por las trochas cercanas al puente internacional Simón Bolívar</t>
+  </si>
+  <si>
+    <t>Colombia incrementa controles en pasos ilegales en frontera con Venezuela</t>
+  </si>
+  <si>
+    <t>http://www.el-nacional.com/noticias/mundo/colombia-incrementa-controles-pasos-ilegales-frontera-con-venezuela_274847</t>
+  </si>
+  <si>
+    <t>NOTA DE PRENSA</t>
+  </si>
+  <si>
+    <t>Líderes vecinales del municipio Libertador realizaron protestas por la escasez de agua en varias zonas, destacando la efectuada en la parroquia Candelaria, donde vecinos cerraron la calle a dos cuadras del Ministerio de Interior Justicia y Paz expresando las penurias que han sufrido ante la ausencia del servicio de agua .|Carlos Julio Rojas, coordinador del Frente en  Defensa del Norte de Caracas, calificó de 'inhumana la falta de agua en la capital', sobre este punto, expresó que “Durante esta semana de oscuridad y ver cómo nos quedamos sin agua tuvimos que recurrir a buscarla en los tanques de las pocetas, para poder bañarnos y calmar la sed. Hay zonas de Libertador que ya les faltaba el agua antes del corte de luz padeciendo hasta 100 días sin que les llegue una gota”, indicó.|Denunciaron que los recursos para este sector fueron desviados. “Ellos han recibido millardos de dólares para actualizar los sistema de distribución del agua, pero al contrario han dejado que esta empresa estatal este en un cierre técnico robándose el dinero del pueblo. Mientras la cúpula del Psuv se baña en piscina como los propios boliburgueses los caraqueños tenemos que buscar agua del Guaire”.|El integrante de la Asamblea de Ciudadanos de Candelaria alertó que no solo son las fallas en la electricidad o agua, sino con los servicios públicos “El transporte público tanto el metro como el de autobuses está destruido, no tenemos gas para cocinar y hasta nos quitaron el derecho a tener un servicio telefónico digno, el culpable de todas estas vicisitudes es el tirano Maduro y la única forma de solucionar estas calamidades es que cese la usurpación”, afirmó, indicó una nota de prensa del Frente.|Por su parte Nancy del Moro, vecina de La Candelaria, confesó como ya tienen casi un mes que no les llega el agua, y que han tenido que usar en muchos casos el agua de los aires acondicionados para poder bañarse y limpiar un poco. “Maduro pone puras excusas para estirar el bulto sobre las fallas en los servicios, pero las instituciones del Estado como ministerios y Miraflores si tienen agua ya que les llegan cisternas pero el pueblo debe pagar 200 dólares por una”, sentenció.</t>
+  </si>
+  <si>
+    <t>http://mmedia.eluniversal.com/17970/protestaron-este-viernes-19577.jpg</t>
+  </si>
+  <si>
+    <t>Nancy del Moro, vecina de la parroquia  Candelaria, confesó como ya tienen casi un mes que no les llega el agua.</t>
+  </si>
+  <si>
+    <t>Vecinos de Caracas protestaron por fallas en los servicios básicos</t>
+  </si>
+  <si>
+    <t>http://www.eluniversal.com/caracas/35458/vecinos-de-caracas-protestan-por-fallas-en-los-servicios-basicos</t>
+  </si>
+  <si>
+    <t>Caracas.-El Banco Interamericano de Desarrollo (BID) reconoció este viernes a Ricardo Hausmann -designado por jefe legislativo Juan Guaidó- como representante de Venezuela ante el organismo.|Los gobernadores ente aprobaron una resolución donde se reconoce el nombramiento de Hausmann, por parte del juramentado presidente encargado, como gobernador ante el BID, informó la institución en un comunicado enviado a la agencia AFP.|El BID se convierte en la primera institución financiera internacional que reconoce a un enviado de Guaidó. Los gobernadores de la Corporación Interamericana de Inversiones (CII), una organización asociada para préstamos en el sector privado, también apoyaron la decisión a la designación de Hausmann.|Hausmann fue designado por Guaidó como su delegado ante el BID el pasado 4 de marzo y hasta ahora ha sido director del Centro para el Desarrollo Internacional y profesor de Economía del Desarrollo de Escuela de Gobierno John F. Kennedy de la Universidad de Harvard.|Entre 1992 y 1993 trabajó como ministro de Planificación del segundo Gobierno de Carlos Andrés Pérez (1989-1993) y como miembro del Directorio del Banco Central de Venezuela, de acuerdo a su perfil académico de Harvard.|El BID es la principal fuente de financiación para el desarrollo de América Latina y el Caribe de la que Estados Unidos es miembro fundador y su suscripción equivale al 30% de su capital.</t>
+  </si>
+  <si>
+    <t>http://static.eluniversal.com/2018/05/23/banco-interamericano-de-desarr.jpg</t>
+  </si>
+  <si>
+    <t>El Banco Interamericano de Desarrollo se convierte en la primera institución financiera internacional en reconocer a un enviado de Guaidó</t>
+  </si>
+  <si>
+    <t>BID reconoce a designado de Guaidó como representante de Venezuela en el organismo</t>
+  </si>
+  <si>
+    <t>http://www.eluniversal.com/economia/35447/ricardo-hausmann-es-reconocido-por-el-bid-como-representante-de-venezuela</t>
+  </si>
+  <si>
+    <t>Caracas.- Denuncian que aún no hay rastros del ciudadano Rafael Adolfo González Merengote, quien lleva más de 24 horas desaparecido, según información del Sindicato Nacional de Trabajadores de la Prensa (SNTP).|González Merengote labora para una empresa de seguridad que presta sus servicios a CNN Internacional en Venezuela y según el SNTP fue abordado por presuntos efectivos del Servicio Bolivariano de Inteligencia Nacional (Sebin) el jueves en el estacionamiento del Aeropuerto Internacional de Maiquetía, estado Vargas.</t>
+  </si>
+  <si>
+    <t>http://mmedia.eluniversal.com/17970/rafael-adolfo-gonzalez-meregote-19565.jpg?fbclid=IwAR0lNyDQYz0mKkenEFS7QHc4iA4vNTCcUHs1Q1rJjnfK6Tlaz3ByagHZruk</t>
+  </si>
+  <si>
+    <t>Este jueves fue abordado en el estacionamiento del aeropuerto internacional de Maiquetía, Rafael González, quien trabajada con un equipo de prensa</t>
+  </si>
+  <si>
+    <t>Denuncian que el ciudadano Rafael González aún se encuentra desaparecido</t>
+  </si>
+  <si>
+    <t>http://www.eluniversal.com/venezuela/35449/sindicato-nacional-de-trabajadora-exige-la-liberacion-de-rafael-gonzalez</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Texas.- American Airlines anunció el viernes que detendrá sus vuelos a Venezuela por motivos de seguridad después de que el sindicato de pilotos les dijo a sus miembros que se negaran a operar en ellos.|La aerolínea estadounidense volaba diariamente a Caracas y Maracaibo desde Miami. Informó el viernes que detuvo temporalmente los vuelos y no operará en países que no considera seguros.|El jueves en la noche, el presidente de la Asociación de Pilotos Aliados instruyó a sus miembros a rechazar las asignaciones de Venezuela. Daniel Carey señaló que el Departamento de Estado advirtió sobre el crimen y la detención de ciudadanos estadounidenses. Estados Unidos sacó a sus últimos diplomáticos del país el jueves.|Otras aerolíneas estadounidenses y extranjeras han dejado de volar a Venezuela debido a que la situación económica y política del país se ha deteriorado en los últimos años.</t>
+  </si>
+  <si>
+    <t>http://mmedia.eluniversal.com/17970/american-airlines-19563.jpg</t>
+  </si>
+  <si>
+    <t>American Airlines anuncia que detendrá sus vuelos a Venezuela por motivos de seguridad después de que el sindicato de pilotos les dijo a sus miembros que se negaran a operar en ellos</t>
+  </si>
+  <si>
+    <t>American Airlines suspende sus vuelos a Venezuela</t>
+  </si>
+  <si>
+    <t>http://www.eluniversal.com/economia/35436/american-airlines-suspende-sus-vuelos-a-venezuela</t>
+  </si>
+  <si>
+    <t>Los usuarios reportaron cortes de luz a través de sus redes sociales en la mañana de este viernes, en los municipios Libertador, Baruta y El Hatillo desde las 10 de la mañana.|Las zonas donde están ocurriendo los cortes son: San Bernandino, la Meseta, Quebrada Honda, avenida Panteón, la Concordia, Prados del Este, Alto Prado, Manzanares, la Boyera, El Hatillo.Así como Guarenas-Guatire.|También han reportado cortes no programado en el Junquito desde el Kilómetro 16 al 23.|Hasta el momento, la Corporación Eléctrica Nacional (Corpoelec) no ha emitido un reporte sobre los cortes.</t>
+  </si>
+  <si>
+    <t>http://mmedia.eluniversal.com/17883/sin-luz-13500.jpg</t>
+  </si>
+  <si>
+    <t>También han reportado cortes no programado en el Junquito desde el Kilométro 16 al 23.</t>
+  </si>
+  <si>
+    <t>Reportan cortes de energía eléctrica en sectores de Caracas</t>
+  </si>
+  <si>
+    <t>http://www.eluniversal.com/caracas/35438/reportan-cortes-de-energia-electrica-en-sectores-de-caracas</t>
+  </si>
+  <si>
+    <t>LUIGI RAMIREZ</t>
+  </si>
+  <si>
+    <t>Tres cuerpos desmembrados fueron localizados  en una zona boscosa del sector La Invasión, Variante de Guayas, vía Los Teques, a la altura del kilómetro 41 de la carretera Panamericana, por una comisión integrada por  diversos  funcionarios de la entidad tras varios días de su desaparición.|Las víctimas pertenecientes a una misma familia, quedaron identificadas como: Jarvin José Rosales Lizcano, oficial de la policía del municipio Carrizal, quien junto a  José Rosario Pérez Mangarré y Luis Manuel Pérez Cedeño, juntos sepultados en una fosa común,  a cuatro metros de profundidad.|La comisión integradas por funcionarios del Cuerpo de Investigaciones Científicas, Penales y Criminalísticas, Protección Civil, Policarrizal y Poliguaicaipuro, descubrieron el hallazgo el pasado miércoles tras las denuncias presentadas por habitantes de la zona, quienes al percibir los olores nauseabundo dieron partes a las autoridades, según lo reseñado por El Carabobeño en su portal web.|Se pudo conocer que las víctimas  fueron secuestradas  desde el pasado domingo, cuando  se  encontraban en su residencia en Los Teques y desde entonces los buscaban.</t>
+  </si>
+  <si>
+    <t>http://mmedia.eluniversal.com/17785/cicpc-4849.jpg</t>
+  </si>
+  <si>
+    <t>sucesos</t>
+  </si>
+  <si>
+    <t>Las víctimas pertenecen a una misma familia y una de ellas fue Jarvin José Rosales Lizcano, quien era oficial de la Policía del municipio Carrizal.</t>
+  </si>
+  <si>
+    <t>Localizan tres cuerpos mutilados en la carretera Panamericana</t>
+  </si>
+  <si>
+    <t>http://www.eluniversal.com/sucesos/35426/encontraron-cuerpos-de-un-oficial-policial-juntos-a-dos-sujetos-en-la-carretera-panamericana</t>
+  </si>
+  <si>
+    <t>ANA CAROLINA ARIAS</t>
+  </si>
+  <si>
+    <t>Nueva Esparta.-Tres hechos vandálicos contra la propiedad privada registrados durante una semana, tiene en alarma a los empresarios en la isla de Margarita.|Un hotel, un galpón de alimentos y un comercio de comida han sido víctimas de actos con características de saqueo y vandalismo.|En la avenida 4 de mayo de Porlamar, el pasado miércoles fue destrozado el comercio de comida árabe “Byblos”. Según testigos, el local fue violentado en horas en la madrugada por un grupo de mujeres, hombres, jóvenes y hasta niños, aparentemente de sectores cercanos.|Jean Gebran Hage, propietario del local con 32 años de tradición en Margarita, dijo a la prensa local, 'me siento un poco decepcionado de las personas y de los vecinos que nos rodean por atacar los comercios. ¿Por qué atacan los negocios? Con eso no van a solucionar los problemas, solo agravan más las cosas'.|Detalló que se llevaron equipos de trabajo, alimentos y artículos de higiene personal, lo cual estima en al menos dos mil dólares, sin contar todo lo que rompieron.|También este jueves trascendió el desmantelamiento del hotel Flamenco, ubicado en playa El Agua, Municipio Antolín del Campo. De acuerdo con vecinos del sector, el hotel tenía tiempo cerrado por falta de turistas y estaba siendo vigilado por personas del lugar.|“Es verdad que poco a poco estaban como sacando cosas del hotel, pero de pronto este jueves vimos el movimiento de gente hasta con camionetas sacando colchones, piezas de los dormitorios, lo que nos hizo pensar que no era un robo normal sino de esos que la gente va corriendo la voz y llega el gentío a ver que agarra”, comentó uno de los prestadores de servicios de alquiler de sillas en la playa.|Roban galpón|La trilogía la completó el robo de unos dos mil kilos de carne de un galpón de refrigeración, ubicado en la autopista Juan Bautista Arismendi.|Gabriel Parés, encargado del galpón Alfrimar, dijo que nunca habían registrado un robo de esa magnitud. “Sacaron la puerta de la cava de su guía y así la abrieron. Se llevaron unos dos mil kilos de carne de cerdo en varias piezas y cortes que estaban almacenados, pero dejaron el pescado”.|Según la inspección que hicieron al lugar determinaron que en el hecho debieron participar por lo menos cinco personas, y lo que más les preocupa es que se sienten desprotegidos.|Comentó que realizaron la denuncia ante los cuerpos policiales y el Cicpc, pero les exigen requisitos difíciles de consignar, como por ejemplo, testigos del hecho.|La situación perturba la tranquilidad de los empresarios, sobre todo porque las autoridades consideran que el trabajo de seguridad en la región es positivo, y eso supone que no revisaran las estrategias.|En efecto en una reciente reunión con la Cámara de Comercio, el Comandante de la ZODI afirmó estar satisfecho de la política de seguridad, ya que el reporte de las trece semanas del año que han transcurrido, los índices de homicidio, robo, hurto han bajado en el Estado.|Por el vandalismo que se suscitó durante el apagón eléctrico en todo el país, la Cámara de Comercio, Fedecámaras y Conseturismo, exigieron a los organismos de seguridad que garanticen el resguardo de los establecimientos y galpones, dedicados a la venta y almacenamiento de alimentos para los supermercados de la región, porque una arremetida permanente pondría en peligro el abastecimiento.</t>
+  </si>
+  <si>
+    <t>http://mmedia.eluniversal.com/17970/isla-margarita-en-una-semana-han-desvalijado-un-hotel-un-galpon-de-comida-y-un-deli-19558.jpg</t>
+  </si>
+  <si>
+    <t>Comerciantes temen que vandalismo se convierta en tendencia</t>
+  </si>
+  <si>
+    <t>En Margarita en una semana han desvalijado un hotel, un galpón y un comercio de comida</t>
+  </si>
+  <si>
+    <t>http://www.eluniversal.com/venezuela/35423/isla-margarita-en-una-semana-han-desvalijado-un-hotel-un-galpon-de-comida-y-un-deli</t>
+  </si>
+  <si>
+    <t>si es alimentación, pero ddhh?</t>
+  </si>
+  <si>
+    <t>eliminar categoria Deportes</t>
+  </si>
+  <si>
+    <t>CONTEXTO?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Texas.- American Airlines anunció el viernes que detendrá sus vuelos a Venezuela por motivos de seguridad después de que el sindicato de pilotos les dijo a sus miembros que se negaran a operar en ellos.|La aerolínea estadounidense volaba diariamente a Caracas y Maracaibo desde Miami. Informó el viernes que detuvo temporalmente los vuelos y no operará en países que no considera seguros.|El jueves en la noche, el presidente de la Asociación de Pilotos Aliados instruyó a sus miembros a rechazar las asignaciones de Venezuela. Daniel Carey señaló que el Departamento de Estado advirtió sobre el crimen y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>la detención de ciudadanos estadounidenses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Estados Unidos sacó a sus últimos diplomáticos del país el jueves.|Otras aerolíneas estadounidenses y extranjeras han dejado de volar a Venezuela debido a que la situación económica y política del país se ha deteriorado en los últimos años.</t>
+    </r>
+  </si>
+  <si>
+    <t>no es ddhh, y seria 1.1</t>
+  </si>
+  <si>
+    <t>saqueo, no se donde iria</t>
+  </si>
+  <si>
+    <t>Funcionarios del Servicio Bolivariano de Inteligenca Nacional (Sebin) allanaron este viernes la oficina de Rafael González, quien se encuentra desaparecido desde hace más de 12 horas, informó Provea.|González es miembro de la empresa de seguridad que presta servicios en Venezuela para la cadena de televesión CNN. Fue abordado por efectivos de inteligencia nacional en el Aeropuerto Internacional Simón Bolívar, en Maiquetía.|Familiares de González se trasladaron este viernes a la Fiscalía de Derechos Fundamentales, en la avenida Urdaneta, para  denunciar su desaparición.|Esta semana fue también detenido el periodista Luis Carlos Díaz y posteriormente liberado bajo libertad condicional, con régimen de presentación de cada ocho días.</t>
+  </si>
+  <si>
+    <t>2019-03-74T03:25:00-0400</t>
+  </si>
+  <si>
+    <t>Familiares de Rafael González se trasladaron este viernes a la Fiscalía de Derechos Fundamentales</t>
+  </si>
+  <si>
+    <t>Sebin allanó oficina de trabajador de la prensa desaparecido por 12 horas</t>
+  </si>
+  <si>
+    <t>http://www.el-nacional.com/noticias/sociedad/sebin-allano-oficina-trabajador-prensa-desaparecido-por-horas_274855</t>
+  </si>
+  <si>
+    <t>2019-03-74T03:10:00-0400</t>
+  </si>
+  <si>
+    <t>Caracas.-El Banco Interamericano de Desarrollo (BID) reconoció este viernes a Ricardo Hausmann -designado por el jefe legislativo Juan Guaidó- como representante de Venezuela ante el organismo.|Los gobernadores del ente aprobaron una resolución donde se reconoce el nombramiento de Hausmann, por parte del juramentado presidente encargado, como gobernador ante el BID, informó la institución en un comunicado enviado a la agencia AFP.|El BID se convierte en la primera institución financiera internacional que reconoce a un enviado de Guaidó. Los gobernadores de la Corporación Interamericana de Inversiones (CII), una organización asociada para préstamos en el sector privado, también apoyaron la decisión a la designación de Hausmann.|Hausmann fue designado por Guaidó como su delegado ante el BID el pasado 4 de marzo y hasta ahora ha sido director del Centro para el Desarrollo Internacional y profesor de Economía del Desarrollo de Escuela de Gobierno John F. Kennedy de la Universidad de Harvard.|Entre 1992 y 1993 trabajó como ministro de Planificación del segundo Gobierno de Carlos Andrés Pérez (1989-1993) y como miembro del Directorio del Banco Central de Venezuela, de acuerdo a su perfil académico de Harvard.|El BID es la principal fuente de financiación para el desarrollo de América Latina y el Caribe de la que Estados Unidos es miembro fundador y su suscripción equivale al 30% de su capital.</t>
+  </si>
+  <si>
+    <t>Los usuarios reportaron cortes de luz a través de sus redes sociales este viernes, en los municipios Libertador, Baruta y El Hatillo desde las 10 de la mañana.|Las zonas donde están ocurriendo los cortes son: San Bernandino, La Meseta, Quebrada Honda, avenida Panteón, La Concordia, Prados del Este, Alto Prado, Manzanares, La Boyera, El Hatillo. Así como Guarenas-Guatire.|También han reportado cortes no programados en El Junquito desde el Kilómetro 16 al 23.|Hasta el momento, la Corporación Eléctrica Nacional (Corpoelec) no ha emitido un reporte sobre los cortes.</t>
+  </si>
+  <si>
+    <t>También han reportado cortes no programados en El Junquito desde el Kilómetro 16 al 23</t>
+  </si>
+  <si>
+    <t>derecho esperado</t>
+  </si>
+  <si>
+    <t>2.8, salud podría ser pero es mas falta de un servicio</t>
+  </si>
+  <si>
+    <t>2.8, no se si sea ddhh</t>
   </si>
 </sst>
 </file>
@@ -1543,6 +1886,10 @@
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="201903130932Data" connectionId="1" xr16:uid="{C9D26DAB-2D47-124E-9164-F59EB848605A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="201903151538Data" connectionId="10" xr16:uid="{C6C0FBCB-941B-A440-ABBF-2405DA15FAD5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="201903131000Data" connectionId="2" xr16:uid="{3A3EE88D-9297-1C4D-86A2-980C19EBC129}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -1569,6 +1916,10 @@
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="201903151219Data" connectionId="8" xr16:uid="{6F3B0CB2-1135-0D4D-89EF-6D5C1145826D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="201903151513Data" connectionId="9" xr16:uid="{A814D2BC-CB94-9D4F-AC56-7C5074F0E742}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2332,11 +2683,601 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF5DF71-9295-DC4C-A028-4E0140E7E3CF}">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.5" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="76.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="80.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H2">
+        <v>274855</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" t="s">
+        <v>482</v>
+      </c>
+      <c r="N2" t="s">
+        <v>483</v>
+      </c>
+      <c r="O2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G3" t="s">
+        <v>485</v>
+      </c>
+      <c r="H3">
+        <v>274842</v>
+      </c>
+      <c r="I3" t="s">
+        <v>415</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" t="s">
+        <v>416</v>
+      </c>
+      <c r="N3" t="s">
+        <v>417</v>
+      </c>
+      <c r="O3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H4">
+        <v>274852</v>
+      </c>
+      <c r="I4" t="s">
+        <v>402</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M4" t="s">
+        <v>403</v>
+      </c>
+      <c r="N4" t="s">
+        <v>404</v>
+      </c>
+      <c r="O4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>490</v>
+      </c>
+      <c r="F5" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G5" t="s">
+        <v>407</v>
+      </c>
+      <c r="H5">
+        <v>274845</v>
+      </c>
+      <c r="I5" t="s">
+        <v>408</v>
+      </c>
+      <c r="J5" t="s">
+        <v>409</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" t="s">
+        <v>410</v>
+      </c>
+      <c r="N5" t="s">
+        <v>411</v>
+      </c>
+      <c r="O5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G6" s="3">
+        <v>43539.613888888889</v>
+      </c>
+      <c r="H6">
+        <v>35458</v>
+      </c>
+      <c r="I6" t="s">
+        <v>436</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>316</v>
+      </c>
+      <c r="M6" t="s">
+        <v>437</v>
+      </c>
+      <c r="N6" t="s">
+        <v>438</v>
+      </c>
+      <c r="O6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" t="s">
+        <v>486</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G7" s="3">
+        <v>43539.587500000001</v>
+      </c>
+      <c r="H7">
+        <v>35447</v>
+      </c>
+      <c r="I7" t="s">
+        <v>441</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="s">
+        <v>442</v>
+      </c>
+      <c r="N7" t="s">
+        <v>443</v>
+      </c>
+      <c r="O7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G8" s="3">
+        <v>43539.574999999997</v>
+      </c>
+      <c r="H8">
+        <v>35449</v>
+      </c>
+      <c r="I8" t="s">
+        <v>446</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>212</v>
+      </c>
+      <c r="M8" t="s">
+        <v>447</v>
+      </c>
+      <c r="N8" t="s">
+        <v>448</v>
+      </c>
+      <c r="O8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G9" s="3">
+        <v>43539.537499999999</v>
+      </c>
+      <c r="H9">
+        <v>35436</v>
+      </c>
+      <c r="I9" t="s">
+        <v>452</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" t="s">
+        <v>453</v>
+      </c>
+      <c r="N9" t="s">
+        <v>454</v>
+      </c>
+      <c r="O9" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" t="s">
+        <v>487</v>
+      </c>
+      <c r="D10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" t="s">
+        <v>491</v>
+      </c>
+      <c r="F10" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G10" s="3">
+        <v>43539.529166666667</v>
+      </c>
+      <c r="H10">
+        <v>35438</v>
+      </c>
+      <c r="I10" t="s">
+        <v>457</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" t="s">
+        <v>316</v>
+      </c>
+      <c r="M10" t="s">
+        <v>488</v>
+      </c>
+      <c r="N10" t="s">
+        <v>459</v>
+      </c>
+      <c r="O10" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>461</v>
+      </c>
+      <c r="C11" t="s">
+        <v>462</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>478</v>
+      </c>
+      <c r="F11" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G11" s="3">
+        <v>43539.525000000001</v>
+      </c>
+      <c r="H11">
+        <v>35426</v>
+      </c>
+      <c r="I11" t="s">
+        <v>463</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" t="s">
+        <v>464</v>
+      </c>
+      <c r="M11" t="s">
+        <v>465</v>
+      </c>
+      <c r="N11" t="s">
+        <v>466</v>
+      </c>
+      <c r="O11" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C12" t="s">
+        <v>469</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>479</v>
+      </c>
+      <c r="F12" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G12" s="3">
+        <v>43539.509722222225</v>
+      </c>
+      <c r="H12">
+        <v>35423</v>
+      </c>
+      <c r="I12" t="s">
+        <v>470</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" t="s">
+        <v>212</v>
+      </c>
+      <c r="M12" t="s">
+        <v>471</v>
+      </c>
+      <c r="N12" t="s">
+        <v>472</v>
+      </c>
+      <c r="O12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EDA894-219D-9641-BD43-4B6A5F0D975C}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -5255,7 +6196,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5886,4 +6827,638 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C396D67-2118-AC44-9DB6-1D6DD108775C}">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.5" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="76.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="80.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H2">
+        <v>274852</v>
+      </c>
+      <c r="I2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2" t="s">
+        <v>403</v>
+      </c>
+      <c r="N2" t="s">
+        <v>404</v>
+      </c>
+      <c r="O2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G3" t="s">
+        <v>407</v>
+      </c>
+      <c r="H3">
+        <v>274845</v>
+      </c>
+      <c r="I3" t="s">
+        <v>408</v>
+      </c>
+      <c r="J3" t="s">
+        <v>409</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" t="s">
+        <v>410</v>
+      </c>
+      <c r="N3" t="s">
+        <v>411</v>
+      </c>
+      <c r="O3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>474</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G4" t="s">
+        <v>414</v>
+      </c>
+      <c r="H4">
+        <v>274842</v>
+      </c>
+      <c r="I4" t="s">
+        <v>415</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" t="s">
+        <v>416</v>
+      </c>
+      <c r="N4" t="s">
+        <v>417</v>
+      </c>
+      <c r="O4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>475</v>
+      </c>
+      <c r="F5" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G5" t="s">
+        <v>420</v>
+      </c>
+      <c r="H5">
+        <v>274841</v>
+      </c>
+      <c r="I5" t="s">
+        <v>421</v>
+      </c>
+      <c r="J5" t="s">
+        <v>422</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="M5" t="s">
+        <v>424</v>
+      </c>
+      <c r="N5" t="s">
+        <v>425</v>
+      </c>
+      <c r="O5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G6" t="s">
+        <v>428</v>
+      </c>
+      <c r="H6">
+        <v>274847</v>
+      </c>
+      <c r="I6" t="s">
+        <v>429</v>
+      </c>
+      <c r="J6" t="s">
+        <v>430</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>192</v>
+      </c>
+      <c r="M6" t="s">
+        <v>431</v>
+      </c>
+      <c r="N6" t="s">
+        <v>432</v>
+      </c>
+      <c r="O6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G7" s="3">
+        <v>43539.613888888889</v>
+      </c>
+      <c r="H7">
+        <v>35458</v>
+      </c>
+      <c r="I7" t="s">
+        <v>436</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>316</v>
+      </c>
+      <c r="M7" t="s">
+        <v>437</v>
+      </c>
+      <c r="N7" t="s">
+        <v>438</v>
+      </c>
+      <c r="O7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>476</v>
+      </c>
+      <c r="F8" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G8" s="3">
+        <v>43539.587500000001</v>
+      </c>
+      <c r="H8">
+        <v>35447</v>
+      </c>
+      <c r="I8" t="s">
+        <v>441</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="s">
+        <v>442</v>
+      </c>
+      <c r="N8" t="s">
+        <v>443</v>
+      </c>
+      <c r="O8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G9" s="3">
+        <v>43539.574999999997</v>
+      </c>
+      <c r="H9">
+        <v>35449</v>
+      </c>
+      <c r="I9" t="s">
+        <v>446</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" t="s">
+        <v>212</v>
+      </c>
+      <c r="M9" t="s">
+        <v>447</v>
+      </c>
+      <c r="N9" t="s">
+        <v>448</v>
+      </c>
+      <c r="O9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C10" t="s">
+        <v>477</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G10" s="3">
+        <v>43539.537499999999</v>
+      </c>
+      <c r="H10">
+        <v>35436</v>
+      </c>
+      <c r="I10" t="s">
+        <v>452</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" t="s">
+        <v>453</v>
+      </c>
+      <c r="N10" t="s">
+        <v>454</v>
+      </c>
+      <c r="O10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" t="s">
+        <v>491</v>
+      </c>
+      <c r="F11" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G11" s="3">
+        <v>43539.529166666667</v>
+      </c>
+      <c r="H11">
+        <v>35438</v>
+      </c>
+      <c r="I11" t="s">
+        <v>457</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" t="s">
+        <v>316</v>
+      </c>
+      <c r="M11" t="s">
+        <v>458</v>
+      </c>
+      <c r="N11" t="s">
+        <v>459</v>
+      </c>
+      <c r="O11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" t="s">
+        <v>461</v>
+      </c>
+      <c r="C12" t="s">
+        <v>462</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>478</v>
+      </c>
+      <c r="F12" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G12" s="3">
+        <v>43539.525000000001</v>
+      </c>
+      <c r="H12">
+        <v>35426</v>
+      </c>
+      <c r="I12" t="s">
+        <v>463</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" t="s">
+        <v>464</v>
+      </c>
+      <c r="M12" t="s">
+        <v>465</v>
+      </c>
+      <c r="N12" t="s">
+        <v>466</v>
+      </c>
+      <c r="O12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" t="s">
+        <v>468</v>
+      </c>
+      <c r="C13" t="s">
+        <v>469</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>479</v>
+      </c>
+      <c r="F13" s="2">
+        <v>43539</v>
+      </c>
+      <c r="G13" s="3">
+        <v>43539.509722222225</v>
+      </c>
+      <c r="H13">
+        <v>35423</v>
+      </c>
+      <c r="I13" t="s">
+        <v>470</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" t="s">
+        <v>212</v>
+      </c>
+      <c r="M13" t="s">
+        <v>471</v>
+      </c>
+      <c r="N13" t="s">
+        <v>472</v>
+      </c>
+      <c r="O13" t="s">
+        <v>473</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>